--- a/Emails-Publicidad.xlsx
+++ b/Emails-Publicidad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="1443">
   <si>
     <t>_abc@hotmail.es </t>
   </si>
@@ -4350,6 +4350,9 @@
   </si>
   <si>
     <t>gomezonedi27@gmail.com</t>
+  </si>
+  <si>
+    <t>roberthernandezah@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4427,7 +4430,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4450,49 +4453,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4513,50 +4479,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4838,10 +4771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1448"/>
+  <dimension ref="A1:F2550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1440" workbookViewId="0">
-      <selection activeCell="A1442" sqref="A1442"/>
+    <sheetView tabSelected="1" topLeftCell="A1438" workbookViewId="0">
+      <selection activeCell="A1443" sqref="A1443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4913,17 +4846,17 @@
       </c>
     </row>
     <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="10" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="10" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
         <v>1129</v>
       </c>
     </row>
@@ -4953,7 +4886,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="10" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -5003,7 +4936,7 @@
       </c>
     </row>
     <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="10" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -5013,7 +4946,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="10" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -5073,7 +5006,7 @@
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="10" t="s">
         <v>1367</v>
       </c>
     </row>
@@ -5098,7 +5031,7 @@
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="10" t="s">
         <v>1331</v>
       </c>
     </row>
@@ -5128,7 +5061,7 @@
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="10" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -5158,7 +5091,7 @@
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="10" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -5183,7 +5116,7 @@
       </c>
     </row>
     <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="10" t="s">
         <v>1379</v>
       </c>
     </row>
@@ -5203,12 +5136,12 @@
       </c>
     </row>
     <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="10" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="10" t="s">
         <v>1291</v>
       </c>
     </row>
@@ -5228,12 +5161,12 @@
       </c>
     </row>
     <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="10" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="10" t="s">
         <v>1410</v>
       </c>
     </row>
@@ -5243,12 +5176,12 @@
       </c>
     </row>
     <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="10" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="10" t="s">
         <v>1269</v>
       </c>
     </row>
@@ -5288,7 +5221,7 @@
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="10" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -5308,7 +5241,7 @@
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="10" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -5353,7 +5286,7 @@
       </c>
     </row>
     <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="10" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -5388,7 +5321,7 @@
       </c>
     </row>
     <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="10" t="s">
         <v>1149</v>
       </c>
     </row>
@@ -5403,7 +5336,7 @@
       </c>
     </row>
     <row r="111" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="10" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -5413,12 +5346,12 @@
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="10" t="s">
         <v>1189</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="10" t="s">
         <v>1315</v>
       </c>
     </row>
@@ -5433,7 +5366,7 @@
       </c>
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="10" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -5458,7 +5391,7 @@
       </c>
     </row>
     <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A122" s="17" t="s">
+      <c r="A122" s="10" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -5523,12 +5456,12 @@
       </c>
     </row>
     <row r="135" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="10" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A136" s="17" t="s">
+      <c r="A136" s="10" t="s">
         <v>1132</v>
       </c>
     </row>
@@ -5543,7 +5476,7 @@
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="10" t="s">
         <v>1251</v>
       </c>
     </row>
@@ -5598,7 +5531,7 @@
       </c>
     </row>
     <row r="150" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A150" s="17" t="s">
+      <c r="A150" s="10" t="s">
         <v>1359</v>
       </c>
     </row>
@@ -5638,12 +5571,12 @@
       </c>
     </row>
     <row r="158" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A158" s="17" t="s">
+      <c r="A158" s="10" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="10" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -5668,17 +5601,17 @@
       </c>
     </row>
     <row r="164" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A164" s="17" t="s">
+      <c r="A164" s="10" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A165" s="17" t="s">
+      <c r="A165" s="10" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A166" s="17" t="s">
+      <c r="A166" s="10" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -5693,7 +5626,7 @@
       </c>
     </row>
     <row r="169" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A169" s="17" t="s">
+      <c r="A169" s="10" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -5728,7 +5661,7 @@
       </c>
     </row>
     <row r="176" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A176" s="17" t="s">
+      <c r="A176" s="10" t="s">
         <v>1414</v>
       </c>
     </row>
@@ -5743,7 +5676,7 @@
       </c>
     </row>
     <row r="179" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A179" s="17" t="s">
+      <c r="A179" s="10" t="s">
         <v>1295</v>
       </c>
     </row>
@@ -5838,12 +5771,12 @@
       </c>
     </row>
     <row r="198" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A198" s="17" t="s">
+      <c r="A198" s="10" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A199" s="17" t="s">
+      <c r="A199" s="10" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -5853,17 +5786,17 @@
       </c>
     </row>
     <row r="201" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A201" s="17" t="s">
+      <c r="A201" s="10" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A202" s="17" t="s">
+      <c r="A202" s="10" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A203" s="17" t="s">
+      <c r="A203" s="10" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -5873,7 +5806,7 @@
       </c>
     </row>
     <row r="205" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A205" s="17" t="s">
+      <c r="A205" s="10" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -5903,7 +5836,7 @@
       </c>
     </row>
     <row r="211" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A211" s="17" t="s">
+      <c r="A211" s="10" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -5923,7 +5856,7 @@
       </c>
     </row>
     <row r="215" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A215" s="17" t="s">
+      <c r="A215" s="10" t="s">
         <v>1162</v>
       </c>
     </row>
@@ -5943,7 +5876,7 @@
       </c>
     </row>
     <row r="219" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A219" s="17" t="s">
+      <c r="A219" s="10" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -5958,7 +5891,7 @@
       </c>
     </row>
     <row r="222" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A222" s="17" t="s">
+      <c r="A222" s="10" t="s">
         <v>1341</v>
       </c>
     </row>
@@ -5973,7 +5906,7 @@
       </c>
     </row>
     <row r="225" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A225" s="17" t="s">
+      <c r="A225" s="10" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -5998,12 +5931,12 @@
       </c>
     </row>
     <row r="230" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A230" s="17" t="s">
+      <c r="A230" s="10" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A231" s="17" t="s">
+      <c r="A231" s="10" t="s">
         <v>1131</v>
       </c>
     </row>
@@ -6028,12 +5961,12 @@
       </c>
     </row>
     <row r="236" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A236" s="17" t="s">
+      <c r="A236" s="10" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A237" s="17" t="s">
+      <c r="A237" s="10" t="s">
         <v>1374</v>
       </c>
     </row>
@@ -6043,7 +5976,7 @@
       </c>
     </row>
     <row r="239" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A239" s="17" t="s">
+      <c r="A239" s="10" t="s">
         <v>1346</v>
       </c>
     </row>
@@ -6058,12 +5991,12 @@
       </c>
     </row>
     <row r="242" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A242" s="17" t="s">
+      <c r="A242" s="10" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A243" s="17" t="s">
+      <c r="A243" s="10" t="s">
         <v>1135</v>
       </c>
     </row>
@@ -6093,7 +6026,7 @@
       </c>
     </row>
     <row r="249" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A249" s="17" t="s">
+      <c r="A249" s="10" t="s">
         <v>1259</v>
       </c>
     </row>
@@ -6103,12 +6036,12 @@
       </c>
     </row>
     <row r="251" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A251" s="17" t="s">
+      <c r="A251" s="10" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A252" s="17" t="s">
+      <c r="A252" s="10" t="s">
         <v>1317</v>
       </c>
     </row>
@@ -6118,22 +6051,22 @@
       </c>
     </row>
     <row r="254" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A254" s="17" t="s">
+      <c r="A254" s="10" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A255" s="17" t="s">
+      <c r="A255" s="10" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A256" s="17" t="s">
+      <c r="A256" s="10" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A257" s="17" t="s">
+      <c r="A257" s="10" t="s">
         <v>1241</v>
       </c>
     </row>
@@ -6168,7 +6101,7 @@
       </c>
     </row>
     <row r="264" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A264" s="17" t="s">
+      <c r="A264" s="10" t="s">
         <v>1381</v>
       </c>
     </row>
@@ -6193,7 +6126,7 @@
       </c>
     </row>
     <row r="269" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A269" s="17" t="s">
+      <c r="A269" s="10" t="s">
         <v>1144</v>
       </c>
     </row>
@@ -6203,12 +6136,12 @@
       </c>
     </row>
     <row r="271" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A271" s="17" t="s">
+      <c r="A271" s="10" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A272" s="17" t="s">
+      <c r="A272" s="10" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -6233,27 +6166,27 @@
       </c>
     </row>
     <row r="277" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A277" s="17" t="s">
+      <c r="A277" s="10" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A278" s="17" t="s">
+      <c r="A278" s="10" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A279" s="17" t="s">
+      <c r="A279" s="10" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A280" s="17" t="s">
+      <c r="A280" s="10" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A281" s="17" t="s">
+      <c r="A281" s="10" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -6263,7 +6196,7 @@
       </c>
     </row>
     <row r="283" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A283" s="17" t="s">
+      <c r="A283" s="10" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -6273,17 +6206,17 @@
       </c>
     </row>
     <row r="285" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A285" s="17" t="s">
+      <c r="A285" s="10" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A286" s="17" t="s">
+      <c r="A286" s="10" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A287" s="17" t="s">
+      <c r="A287" s="10" t="s">
         <v>1306</v>
       </c>
     </row>
@@ -6298,17 +6231,17 @@
       </c>
     </row>
     <row r="290" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A290" s="17" t="s">
+      <c r="A290" s="10" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A291" s="17" t="s">
+      <c r="A291" s="10" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A292" s="17" t="s">
+      <c r="A292" s="10" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -6383,12 +6316,12 @@
       </c>
     </row>
     <row r="307" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A307" s="17" t="s">
+      <c r="A307" s="10" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A308" s="17" t="s">
+      <c r="A308" s="10" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -6423,12 +6356,12 @@
       </c>
     </row>
     <row r="315" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A315" s="17" t="s">
+      <c r="A315" s="10" t="s">
         <v>1429</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A316" s="17" t="s">
+      <c r="A316" s="10" t="s">
         <v>1336</v>
       </c>
     </row>
@@ -6448,7 +6381,7 @@
       </c>
     </row>
     <row r="320" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A320" s="17" t="s">
+      <c r="A320" s="10" t="s">
         <v>1321</v>
       </c>
     </row>
@@ -6463,7 +6396,7 @@
       </c>
     </row>
     <row r="323" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A323" s="17" t="s">
+      <c r="A323" s="10" t="s">
         <v>1371</v>
       </c>
     </row>
@@ -6478,7 +6411,7 @@
       </c>
     </row>
     <row r="326" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A326" s="17" t="s">
+      <c r="A326" s="10" t="s">
         <v>1423</v>
       </c>
     </row>
@@ -6508,7 +6441,7 @@
       </c>
     </row>
     <row r="332" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A332" s="17" t="s">
+      <c r="A332" s="10" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -6518,7 +6451,7 @@
       </c>
     </row>
     <row r="334" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A334" s="17" t="s">
+      <c r="A334" s="10" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -6553,7 +6486,7 @@
       </c>
     </row>
     <row r="341" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A341" s="17" t="s">
+      <c r="A341" s="10" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -6593,7 +6526,7 @@
       </c>
     </row>
     <row r="349" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A349" s="17" t="s">
+      <c r="A349" s="10" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -6663,12 +6596,12 @@
       </c>
     </row>
     <row r="363" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A363" s="17" t="s">
+      <c r="A363" s="10" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A364" s="17" t="s">
+      <c r="A364" s="10" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -6718,7 +6651,7 @@
       </c>
     </row>
     <row r="374" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A374" s="17" t="s">
+      <c r="A374" s="10" t="s">
         <v>1236</v>
       </c>
     </row>
@@ -6728,7 +6661,7 @@
       </c>
     </row>
     <row r="376" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A376" s="17" t="s">
+      <c r="A376" s="10" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -6753,7 +6686,7 @@
       </c>
     </row>
     <row r="381" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A381" s="17" t="s">
+      <c r="A381" s="10" t="s">
         <v>1425</v>
       </c>
     </row>
@@ -6773,7 +6706,7 @@
       </c>
     </row>
     <row r="385" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A385" s="17" t="s">
+      <c r="A385" s="10" t="s">
         <v>1249</v>
       </c>
     </row>
@@ -6793,7 +6726,7 @@
       </c>
     </row>
     <row r="389" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A389" s="17" t="s">
+      <c r="A389" s="10" t="s">
         <v>1271</v>
       </c>
     </row>
@@ -6833,7 +6766,7 @@
       </c>
     </row>
     <row r="397" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A397" s="17" t="s">
+      <c r="A397" s="10" t="s">
         <v>1350</v>
       </c>
     </row>
@@ -6883,7 +6816,7 @@
       </c>
     </row>
     <row r="407" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A407" s="17" t="s">
+      <c r="A407" s="10" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -6913,7 +6846,7 @@
       </c>
     </row>
     <row r="413" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A413" s="17" t="s">
+      <c r="A413" s="10" t="s">
         <v>1255</v>
       </c>
     </row>
@@ -6923,7 +6856,7 @@
       </c>
     </row>
     <row r="415" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A415" s="17" t="s">
+      <c r="A415" s="10" t="s">
         <v>1298</v>
       </c>
     </row>
@@ -6953,12 +6886,12 @@
       </c>
     </row>
     <row r="421" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A421" s="17" t="s">
+      <c r="A421" s="10" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A422" s="17" t="s">
+      <c r="A422" s="10" t="s">
         <v>1127</v>
       </c>
     </row>
@@ -6983,7 +6916,7 @@
       </c>
     </row>
     <row r="427" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A427" s="17" t="s">
+      <c r="A427" s="10" t="s">
         <v>1284</v>
       </c>
     </row>
@@ -7023,7 +6956,7 @@
       </c>
     </row>
     <row r="435" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A435" s="17" t="s">
+      <c r="A435" s="10" t="s">
         <v>1237</v>
       </c>
     </row>
@@ -7038,7 +6971,7 @@
       </c>
     </row>
     <row r="438" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A438" s="17" t="s">
+      <c r="A438" s="10" t="s">
         <v>1318</v>
       </c>
     </row>
@@ -7073,12 +7006,12 @@
       </c>
     </row>
     <row r="445" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A445" s="17" t="s">
+      <c r="A445" s="10" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A446" s="17" t="s">
+      <c r="A446" s="10" t="s">
         <v>1305</v>
       </c>
     </row>
@@ -7093,7 +7026,7 @@
       </c>
     </row>
     <row r="449" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A449" s="17" t="s">
+      <c r="A449" s="10" t="s">
         <v>1264</v>
       </c>
     </row>
@@ -7113,7 +7046,7 @@
       </c>
     </row>
     <row r="453" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A453" s="17" t="s">
+      <c r="A453" s="10" t="s">
         <v>1391</v>
       </c>
     </row>
@@ -7168,7 +7101,7 @@
       </c>
     </row>
     <row r="464" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A464" s="17" t="s">
+      <c r="A464" s="10" t="s">
         <v>1387</v>
       </c>
     </row>
@@ -7183,7 +7116,7 @@
       </c>
     </row>
     <row r="467" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A467" s="17" t="s">
+      <c r="A467" s="10" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -7223,12 +7156,12 @@
       </c>
     </row>
     <row r="475" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A475" s="17" t="s">
+      <c r="A475" s="10" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A476" s="17" t="s">
+      <c r="A476" s="10" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -7268,7 +7201,7 @@
       </c>
     </row>
     <row r="484" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A484" s="17" t="s">
+      <c r="A484" s="10" t="s">
         <v>1220</v>
       </c>
     </row>
@@ -7288,12 +7221,12 @@
       </c>
     </row>
     <row r="488" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A488" s="17" t="s">
+      <c r="A488" s="10" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A489" s="17" t="s">
+      <c r="A489" s="10" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -7303,22 +7236,22 @@
       </c>
     </row>
     <row r="491" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A491" s="17" t="s">
+      <c r="A491" s="10" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="492" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A492" s="17" t="s">
+      <c r="A492" s="10" t="s">
         <v>1188</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A493" s="17" t="s">
+      <c r="A493" s="10" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A494" s="17" t="s">
+      <c r="A494" s="10" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -7338,7 +7271,7 @@
       </c>
     </row>
     <row r="498" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A498" s="17" t="s">
+      <c r="A498" s="10" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -7383,7 +7316,7 @@
       </c>
     </row>
     <row r="507" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A507" s="17" t="s">
+      <c r="A507" s="10" t="s">
         <v>1212</v>
       </c>
     </row>
@@ -7393,12 +7326,12 @@
       </c>
     </row>
     <row r="509" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A509" s="17" t="s">
+      <c r="A509" s="10" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A510" s="17" t="s">
+      <c r="A510" s="10" t="s">
         <v>1362</v>
       </c>
     </row>
@@ -7408,7 +7341,7 @@
       </c>
     </row>
     <row r="512" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A512" s="17" t="s">
+      <c r="A512" s="10" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -7498,7 +7431,7 @@
       </c>
     </row>
     <row r="530" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A530" s="17" t="s">
+      <c r="A530" s="10" t="s">
         <v>1432</v>
       </c>
     </row>
@@ -7508,7 +7441,7 @@
       </c>
     </row>
     <row r="532" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A532" s="17" t="s">
+      <c r="A532" s="10" t="s">
         <v>1433</v>
       </c>
     </row>
@@ -7528,7 +7461,7 @@
       </c>
     </row>
     <row r="536" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A536" s="17" t="s">
+      <c r="A536" s="10" t="s">
         <v>1364</v>
       </c>
     </row>
@@ -7538,7 +7471,7 @@
       </c>
     </row>
     <row r="538" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A538" s="17" t="s">
+      <c r="A538" s="10" t="s">
         <v>1244</v>
       </c>
     </row>
@@ -7548,7 +7481,7 @@
       </c>
     </row>
     <row r="540" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A540" s="17" t="s">
+      <c r="A540" s="10" t="s">
         <v>1252</v>
       </c>
     </row>
@@ -7588,7 +7521,7 @@
       </c>
     </row>
     <row r="548" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A548" s="17" t="s">
+      <c r="A548" s="10" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -7608,7 +7541,7 @@
       </c>
     </row>
     <row r="552" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A552" s="17" t="s">
+      <c r="A552" s="10" t="s">
         <v>1229</v>
       </c>
     </row>
@@ -7618,7 +7551,7 @@
       </c>
     </row>
     <row r="554" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A554" s="17" t="s">
+      <c r="A554" s="10" t="s">
         <v>1234</v>
       </c>
     </row>
@@ -7628,7 +7561,7 @@
       </c>
     </row>
     <row r="556" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A556" s="17" t="s">
+      <c r="A556" s="10" t="s">
         <v>1311</v>
       </c>
     </row>
@@ -7643,12 +7576,12 @@
       </c>
     </row>
     <row r="559" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A559" s="17" t="s">
+      <c r="A559" s="10" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="560" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A560" s="17" t="s">
+      <c r="A560" s="10" t="s">
         <v>1267</v>
       </c>
     </row>
@@ -7713,12 +7646,12 @@
       </c>
     </row>
     <row r="573" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A573" s="17" t="s">
+      <c r="A573" s="10" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="574" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A574" s="17" t="s">
+      <c r="A574" s="10" t="s">
         <v>1394</v>
       </c>
     </row>
@@ -7743,7 +7676,7 @@
       </c>
     </row>
     <row r="579" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A579" s="17" t="s">
+      <c r="A579" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -7768,7 +7701,7 @@
       </c>
     </row>
     <row r="584" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A584" s="17" t="s">
+      <c r="A584" s="10" t="s">
         <v>1253</v>
       </c>
     </row>
@@ -7823,7 +7756,7 @@
       </c>
     </row>
     <row r="595" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A595" s="17" t="s">
+      <c r="A595" s="10" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -7848,12 +7781,12 @@
       </c>
     </row>
     <row r="600" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A600" s="17" t="s">
+      <c r="A600" s="10" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="601" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A601" s="17" t="s">
+      <c r="A601" s="10" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -7883,12 +7816,12 @@
       </c>
     </row>
     <row r="607" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A607" s="17" t="s">
+      <c r="A607" s="10" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="608" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A608" s="17" t="s">
+      <c r="A608" s="10" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -7903,7 +7836,7 @@
       </c>
     </row>
     <row r="611" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A611" s="17" t="s">
+      <c r="A611" s="10" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -7918,22 +7851,22 @@
       </c>
     </row>
     <row r="614" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A614" s="17" t="s">
+      <c r="A614" s="10" t="s">
         <v>1437</v>
       </c>
     </row>
     <row r="615" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A615" s="17" t="s">
+      <c r="A615" s="10" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="616" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A616" s="17" t="s">
+      <c r="A616" s="10" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="617" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A617" s="17" t="s">
+      <c r="A617" s="10" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -8058,12 +7991,12 @@
       </c>
     </row>
     <row r="642" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A642" s="17" t="s">
+      <c r="A642" s="10" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="643" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A643" s="17" t="s">
+      <c r="A643" s="10" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -8078,17 +8011,17 @@
       </c>
     </row>
     <row r="646" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A646" s="17" t="s">
+      <c r="A646" s="10" t="s">
         <v>1313</v>
       </c>
     </row>
     <row r="647" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A647" s="17" t="s">
+      <c r="A647" s="10" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="648" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A648" s="17" t="s">
+      <c r="A648" s="10" t="s">
         <v>1382</v>
       </c>
     </row>
@@ -8098,7 +8031,7 @@
       </c>
     </row>
     <row r="650" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A650" s="17" t="s">
+      <c r="A650" s="10" t="s">
         <v>1405</v>
       </c>
     </row>
@@ -8108,7 +8041,7 @@
       </c>
     </row>
     <row r="652" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A652" s="17" t="s">
+      <c r="A652" s="10" t="s">
         <v>1421</v>
       </c>
     </row>
@@ -8118,7 +8051,7 @@
       </c>
     </row>
     <row r="654" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A654" s="17" t="s">
+      <c r="A654" s="10" t="s">
         <v>1146</v>
       </c>
     </row>
@@ -8138,12 +8071,12 @@
       </c>
     </row>
     <row r="658" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A658" s="17" t="s">
+      <c r="A658" s="10" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="659" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A659" s="17" t="s">
+      <c r="A659" s="10" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -8178,7 +8111,7 @@
       </c>
     </row>
     <row r="666" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A666" s="17" t="s">
+      <c r="A666" s="10" t="s">
         <v>1182</v>
       </c>
     </row>
@@ -8203,7 +8136,7 @@
       </c>
     </row>
     <row r="671" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A671" s="17" t="s">
+      <c r="A671" s="10" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -8213,7 +8146,7 @@
       </c>
     </row>
     <row r="673" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A673" s="17" t="s">
+      <c r="A673" s="10" t="s">
         <v>1177</v>
       </c>
     </row>
@@ -8238,7 +8171,7 @@
       </c>
     </row>
     <row r="678" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A678" s="17" t="s">
+      <c r="A678" s="10" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -8338,7 +8271,7 @@
       </c>
     </row>
     <row r="698" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A698" s="17" t="s">
+      <c r="A698" s="10" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -8353,7 +8286,7 @@
       </c>
     </row>
     <row r="701" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A701" s="17" t="s">
+      <c r="A701" s="10" t="s">
         <v>1245</v>
       </c>
     </row>
@@ -8408,12 +8341,12 @@
       </c>
     </row>
     <row r="712" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A712" s="17" t="s">
+      <c r="A712" s="10" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="713" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A713" s="17" t="s">
+      <c r="A713" s="10" t="s">
         <v>1197</v>
       </c>
     </row>
@@ -8428,7 +8361,7 @@
       </c>
     </row>
     <row r="716" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A716" s="17" t="s">
+      <c r="A716" s="10" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -8438,22 +8371,22 @@
       </c>
     </row>
     <row r="718" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A718" s="17" t="s">
+      <c r="A718" s="10" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="719" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A719" s="17" t="s">
+      <c r="A719" s="10" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="720" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A720" s="17" t="s">
+      <c r="A720" s="10" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="721" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A721" s="17" t="s">
+      <c r="A721" s="10" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -8513,12 +8446,12 @@
       </c>
     </row>
     <row r="733" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A733" s="17" t="s">
+      <c r="A733" s="10" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="734" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A734" s="17" t="s">
+      <c r="A734" s="10" t="s">
         <v>1322</v>
       </c>
     </row>
@@ -8538,7 +8471,7 @@
       </c>
     </row>
     <row r="738" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A738" s="17" t="s">
+      <c r="A738" s="10" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8618,12 +8551,12 @@
       </c>
     </row>
     <row r="754" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A754" s="17" t="s">
+      <c r="A754" s="10" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="755" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A755" s="17" t="s">
+      <c r="A755" s="10" t="s">
         <v>1328</v>
       </c>
     </row>
@@ -8633,7 +8566,7 @@
       </c>
     </row>
     <row r="757" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A757" s="17" t="s">
+      <c r="A757" s="10" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -8678,17 +8611,17 @@
       </c>
     </row>
     <row r="766" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A766" s="17" t="s">
+      <c r="A766" s="10" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="767" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A767" s="17" t="s">
+      <c r="A767" s="10" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="768" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A768" s="17" t="s">
+      <c r="A768" s="10" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -8698,7 +8631,7 @@
       </c>
     </row>
     <row r="770" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A770" s="17" t="s">
+      <c r="A770" s="10" t="s">
         <v>1337</v>
       </c>
     </row>
@@ -8743,7 +8676,7 @@
       </c>
     </row>
     <row r="779" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A779" s="17" t="s">
+      <c r="A779" s="10" t="s">
         <v>1422</v>
       </c>
     </row>
@@ -8753,17 +8686,17 @@
       </c>
     </row>
     <row r="781" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A781" s="17" t="s">
+      <c r="A781" s="10" t="s">
         <v>1439</v>
       </c>
     </row>
     <row r="782" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A782" s="17" t="s">
+      <c r="A782" s="10" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="783" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A783" s="17" t="s">
+      <c r="A783" s="10" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -8773,7 +8706,7 @@
       </c>
     </row>
     <row r="785" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A785" s="17" t="s">
+      <c r="A785" s="10" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -8813,12 +8746,12 @@
       </c>
     </row>
     <row r="793" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A793" s="17" t="s">
+      <c r="A793" s="10" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="794" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A794" s="17" t="s">
+      <c r="A794" s="10" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -8828,7 +8761,7 @@
       </c>
     </row>
     <row r="796" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A796" s="17" t="s">
+      <c r="A796" s="10" t="s">
         <v>1307</v>
       </c>
     </row>
@@ -8838,22 +8771,22 @@
       </c>
     </row>
     <row r="798" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A798" s="17" t="s">
+      <c r="A798" s="10" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="799" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A799" s="17" t="s">
+      <c r="A799" s="10" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="800" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A800" s="17" t="s">
+      <c r="A800" s="10" t="s">
         <v>1333</v>
       </c>
     </row>
     <row r="801" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A801" s="17" t="s">
+      <c r="A801" s="10" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -8863,7 +8796,7 @@
       </c>
     </row>
     <row r="803" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A803" s="17" t="s">
+      <c r="A803" s="10" t="s">
         <v>1345</v>
       </c>
     </row>
@@ -8873,17 +8806,17 @@
       </c>
     </row>
     <row r="805" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A805" s="17" t="s">
+      <c r="A805" s="10" t="s">
         <v>1403</v>
       </c>
     </row>
     <row r="806" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A806" s="17" t="s">
+      <c r="A806" s="10" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="807" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A807" s="17" t="s">
+      <c r="A807" s="10" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -8998,7 +8931,7 @@
       </c>
     </row>
     <row r="830" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A830" s="17" t="s">
+      <c r="A830" s="10" t="s">
         <v>1123</v>
       </c>
     </row>
@@ -9043,7 +8976,7 @@
       </c>
     </row>
     <row r="839" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A839" s="17" t="s">
+      <c r="A839" s="10" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -9053,7 +8986,7 @@
       </c>
     </row>
     <row r="841" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A841" s="17" t="s">
+      <c r="A841" s="10" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -9123,7 +9056,7 @@
       </c>
     </row>
     <row r="855" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A855" s="17" t="s">
+      <c r="A855" s="10" t="s">
         <v>1268</v>
       </c>
     </row>
@@ -9138,12 +9071,12 @@
       </c>
     </row>
     <row r="858" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A858" s="17" t="s">
+      <c r="A858" s="10" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="859" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A859" s="17" t="s">
+      <c r="A859" s="10" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -9168,7 +9101,7 @@
       </c>
     </row>
     <row r="864" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A864" s="17" t="s">
+      <c r="A864" s="10" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -9188,17 +9121,17 @@
       </c>
     </row>
     <row r="868" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A868" s="17" t="s">
+      <c r="A868" s="10" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="869" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A869" s="17" t="s">
+      <c r="A869" s="10" t="s">
         <v>1325</v>
       </c>
     </row>
     <row r="870" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A870" s="17" t="s">
+      <c r="A870" s="10" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -9248,12 +9181,12 @@
       </c>
     </row>
     <row r="880" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A880" s="17" t="s">
+      <c r="A880" s="10" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="881" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A881" s="17" t="s">
+      <c r="A881" s="10" t="s">
         <v>1303</v>
       </c>
     </row>
@@ -9278,7 +9211,7 @@
       </c>
     </row>
     <row r="886" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A886" s="17" t="s">
+      <c r="A886" s="10" t="s">
         <v>1239</v>
       </c>
     </row>
@@ -9323,7 +9256,7 @@
       </c>
     </row>
     <row r="895" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A895" s="17" t="s">
+      <c r="A895" s="10" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -9343,7 +9276,7 @@
       </c>
     </row>
     <row r="899" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A899" s="17" t="s">
+      <c r="A899" s="10" t="s">
         <v>1357</v>
       </c>
     </row>
@@ -9353,12 +9286,12 @@
       </c>
     </row>
     <row r="901" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A901" s="17" t="s">
+      <c r="A901" s="10" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="902" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A902" s="17" t="s">
+      <c r="A902" s="10" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -9368,7 +9301,7 @@
       </c>
     </row>
     <row r="904" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A904" s="17" t="s">
+      <c r="A904" s="10" t="s">
         <v>1207</v>
       </c>
     </row>
@@ -9378,7 +9311,7 @@
       </c>
     </row>
     <row r="906" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A906" s="17" t="s">
+      <c r="A906" s="10" t="s">
         <v>1419</v>
       </c>
     </row>
@@ -9408,7 +9341,7 @@
       </c>
     </row>
     <row r="912" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A912" s="17" t="s">
+      <c r="A912" s="10" t="s">
         <v>1406</v>
       </c>
     </row>
@@ -9428,12 +9361,12 @@
       </c>
     </row>
     <row r="916" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A916" s="17" t="s">
+      <c r="A916" s="10" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="917" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A917" s="17" t="s">
+      <c r="A917" s="10" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -9458,7 +9391,7 @@
       </c>
     </row>
     <row r="922" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A922" s="17" t="s">
+      <c r="A922" s="10" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -9503,12 +9436,12 @@
       </c>
     </row>
     <row r="931" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A931" s="17" t="s">
+      <c r="A931" s="10" t="s">
         <v>1339</v>
       </c>
     </row>
     <row r="932" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A932" s="17" t="s">
+      <c r="A932" s="10" t="s">
         <v>1297</v>
       </c>
     </row>
@@ -9528,7 +9461,7 @@
       </c>
     </row>
     <row r="936" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A936" s="17" t="s">
+      <c r="A936" s="10" t="s">
         <v>1208</v>
       </c>
     </row>
@@ -9538,7 +9471,7 @@
       </c>
     </row>
     <row r="938" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A938" s="17" t="s">
+      <c r="A938" s="10" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -9568,17 +9501,17 @@
       </c>
     </row>
     <row r="944" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A944" s="17" t="s">
+      <c r="A944" s="10" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="945" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A945" s="17" t="s">
+      <c r="A945" s="10" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="946" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A946" s="17" t="s">
+      <c r="A946" s="10" t="s">
         <v>1400</v>
       </c>
     </row>
@@ -9598,12 +9531,12 @@
       </c>
     </row>
     <row r="950" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A950" s="17" t="s">
+      <c r="A950" s="10" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="951" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A951" s="17" t="s">
+      <c r="A951" s="10" t="s">
         <v>1324</v>
       </c>
     </row>
@@ -9628,7 +9561,7 @@
       </c>
     </row>
     <row r="956" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A956" s="17" t="s">
+      <c r="A956" s="10" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -9658,7 +9591,7 @@
       </c>
     </row>
     <row r="962" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A962" s="17" t="s">
+      <c r="A962" s="10" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -9673,12 +9606,12 @@
       </c>
     </row>
     <row r="965" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A965" s="17" t="s">
+      <c r="A965" s="10" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="966" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A966" s="17" t="s">
+      <c r="A966" s="10" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -9698,12 +9631,12 @@
       </c>
     </row>
     <row r="970" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A970" s="17" t="s">
+      <c r="A970" s="10" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="971" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A971" s="17" t="s">
+      <c r="A971" s="10" t="s">
         <v>1141</v>
       </c>
     </row>
@@ -9808,7 +9741,7 @@
       </c>
     </row>
     <row r="992" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A992" s="17" t="s">
+      <c r="A992" s="10" t="s">
         <v>1309</v>
       </c>
     </row>
@@ -9828,12 +9761,12 @@
       </c>
     </row>
     <row r="996" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A996" s="17" t="s">
+      <c r="A996" s="10" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="997" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A997" s="17" t="s">
+      <c r="A997" s="10" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -9853,7 +9786,7 @@
       </c>
     </row>
     <row r="1001" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1001" s="17" t="s">
+      <c r="A1001" s="10" t="s">
         <v>1411</v>
       </c>
     </row>
@@ -9863,7 +9796,7 @@
       </c>
     </row>
     <row r="1003" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1003" s="17" t="s">
+      <c r="A1003" s="10" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -9888,12 +9821,12 @@
       </c>
     </row>
     <row r="1008" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1008" s="17" t="s">
+      <c r="A1008" s="10" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="1009" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1009" s="17" t="s">
+      <c r="A1009" s="10" t="s">
         <v>1376</v>
       </c>
     </row>
@@ -9928,7 +9861,7 @@
       </c>
     </row>
     <row r="1016" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1016" s="17" t="s">
+      <c r="A1016" s="10" t="s">
         <v>1434</v>
       </c>
     </row>
@@ -9938,22 +9871,22 @@
       </c>
     </row>
     <row r="1018" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1018" s="17" t="s">
+      <c r="A1018" s="10" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="1019" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1019" s="17" t="s">
+      <c r="A1019" s="10" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="1020" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1020" s="17" t="s">
+      <c r="A1020" s="10" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="1021" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1021" s="17" t="s">
+      <c r="A1021" s="10" t="s">
         <v>1296</v>
       </c>
     </row>
@@ -9973,7 +9906,7 @@
       </c>
     </row>
     <row r="1025" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1025" s="17" t="s">
+      <c r="A1025" s="10" t="s">
         <v>1349</v>
       </c>
     </row>
@@ -9988,7 +9921,7 @@
       </c>
     </row>
     <row r="1028" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1028" s="17" t="s">
+      <c r="A1028" s="10" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -10023,12 +9956,12 @@
       </c>
     </row>
     <row r="1035" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1035" s="17" t="s">
+      <c r="A1035" s="10" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="1036" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1036" s="17" t="s">
+      <c r="A1036" s="10" t="s">
         <v>1256</v>
       </c>
     </row>
@@ -10083,7 +10016,7 @@
       </c>
     </row>
     <row r="1047" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1047" s="17" t="s">
+      <c r="A1047" s="10" t="s">
         <v>1113</v>
       </c>
       <c r="B1047" s="7"/>
@@ -10107,7 +10040,7 @@
       <c r="D1049" s="8"/>
     </row>
     <row r="1050" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1050" s="17" t="s">
+      <c r="A1050" s="10" t="s">
         <v>1153</v>
       </c>
       <c r="B1050" s="7"/>
@@ -10131,7 +10064,7 @@
       <c r="D1052" s="8"/>
     </row>
     <row r="1053" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1053" s="17" t="s">
+      <c r="A1053" s="10" t="s">
         <v>1327</v>
       </c>
       <c r="B1053" s="7"/>
@@ -10195,7 +10128,7 @@
       <c r="D1060" s="8"/>
     </row>
     <row r="1061" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1061" s="17" t="s">
+      <c r="A1061" s="10" t="s">
         <v>1415</v>
       </c>
       <c r="B1061" s="9"/>
@@ -10211,7 +10144,7 @@
       <c r="D1062" s="8"/>
     </row>
     <row r="1063" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1063" s="17" t="s">
+      <c r="A1063" s="10" t="s">
         <v>1304</v>
       </c>
       <c r="B1063" s="9"/>
@@ -10327,7 +10260,7 @@
       <c r="D1078" s="8"/>
     </row>
     <row r="1079" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1079" s="17" t="s">
+      <c r="A1079" s="10" t="s">
         <v>1102</v>
       </c>
       <c r="B1079" s="9"/>
@@ -10335,7 +10268,7 @@
       <c r="D1079" s="8"/>
     </row>
     <row r="1080" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1080" s="17" t="s">
+      <c r="A1080" s="10" t="s">
         <v>1148</v>
       </c>
       <c r="B1080" s="9"/>
@@ -10391,7 +10324,7 @@
       <c r="D1086" s="8"/>
     </row>
     <row r="1087" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1087" s="17" t="s">
+      <c r="A1087" s="10" t="s">
         <v>1287</v>
       </c>
       <c r="B1087" s="9"/>
@@ -10399,7 +10332,7 @@
       <c r="D1087" s="8"/>
     </row>
     <row r="1088" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1088" s="17" t="s">
+      <c r="A1088" s="10" t="s">
         <v>1160</v>
       </c>
       <c r="B1088" s="9"/>
@@ -10423,12 +10356,12 @@
       <c r="D1090" s="8"/>
     </row>
     <row r="1091" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1091" s="17" t="s">
+      <c r="A1091" s="10" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="1092" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1092" s="17" t="s">
+      <c r="A1092" s="10" t="s">
         <v>1332</v>
       </c>
       <c r="B1092" s="9"/>
@@ -10492,7 +10425,7 @@
       <c r="D1099" s="8"/>
     </row>
     <row r="1100" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1100" s="17" t="s">
+      <c r="A1100" s="10" t="s">
         <v>1224</v>
       </c>
       <c r="B1100" s="9"/>
@@ -10500,7 +10433,7 @@
       <c r="D1100" s="8"/>
     </row>
     <row r="1101" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1101" s="17" t="s">
+      <c r="A1101" s="10" t="s">
         <v>1312</v>
       </c>
       <c r="B1101" s="9"/>
@@ -10508,7 +10441,7 @@
       <c r="D1101" s="8"/>
     </row>
     <row r="1102" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1102" s="17" t="s">
+      <c r="A1102" s="10" t="s">
         <v>1402</v>
       </c>
       <c r="B1102" s="9"/>
@@ -10524,7 +10457,7 @@
       <c r="D1103" s="8"/>
     </row>
     <row r="1104" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1104" s="18" t="s">
+      <c r="A1104" s="1" t="s">
         <v>788</v>
       </c>
       <c r="B1104" s="9"/>
@@ -10534,7 +10467,7 @@
       <c r="F1104" s="12"/>
     </row>
     <row r="1105" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1105" s="18" t="s">
+      <c r="A1105" s="1" t="s">
         <v>789</v>
       </c>
       <c r="C1105" s="11"/>
@@ -10543,7 +10476,7 @@
       <c r="F1105" s="12"/>
     </row>
     <row r="1106" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1106" s="18" t="s">
+      <c r="A1106" s="1" t="s">
         <v>790</v>
       </c>
       <c r="C1106" s="11"/>
@@ -10552,7 +10485,7 @@
       <c r="F1106" s="12"/>
     </row>
     <row r="1107" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1107" s="18" t="s">
+      <c r="A1107" s="1" t="s">
         <v>791</v>
       </c>
       <c r="C1107" s="11"/>
@@ -10561,7 +10494,7 @@
       <c r="F1107" s="12"/>
     </row>
     <row r="1108" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1108" s="18" t="s">
+      <c r="A1108" s="1" t="s">
         <v>792</v>
       </c>
       <c r="C1108" s="11"/>
@@ -10588,7 +10521,7 @@
       <c r="F1110" s="12"/>
     </row>
     <row r="1111" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1111" s="18" t="s">
+      <c r="A1111" s="1" t="s">
         <v>793</v>
       </c>
       <c r="C1111" s="11"/>
@@ -10597,7 +10530,7 @@
       <c r="F1111" s="12"/>
     </row>
     <row r="1112" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1112" s="18" t="s">
+      <c r="A1112" s="1" t="s">
         <v>794</v>
       </c>
       <c r="C1112" s="11"/>
@@ -10606,7 +10539,7 @@
       <c r="F1112" s="12"/>
     </row>
     <row r="1113" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1113" s="18" t="s">
+      <c r="A1113" s="1" t="s">
         <v>795</v>
       </c>
       <c r="C1113" s="11"/>
@@ -10624,7 +10557,7 @@
       <c r="F1114" s="12"/>
     </row>
     <row r="1115" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1115" s="18" t="s">
+      <c r="A1115" s="1" t="s">
         <v>796</v>
       </c>
       <c r="C1115" s="11"/>
@@ -10633,7 +10566,7 @@
       <c r="F1115" s="12"/>
     </row>
     <row r="1116" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1116" s="22" t="s">
+      <c r="A1116" s="10" t="s">
         <v>1342</v>
       </c>
       <c r="C1116" s="11"/>
@@ -10642,13 +10575,13 @@
       <c r="F1116" s="12"/>
     </row>
     <row r="1117" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1117" s="13" t="s">
+      <c r="A1117" s="10" t="s">
         <v>1340</v>
       </c>
       <c r="C1117" s="11"/>
       <c r="D1117" s="12"/>
-      <c r="E1117" s="14"/>
-      <c r="F1117" s="15"/>
+      <c r="E1117" s="12"/>
+      <c r="F1117" s="12"/>
     </row>
     <row r="1118" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1118" s="10" t="s">
@@ -10656,7 +10589,7 @@
       </c>
       <c r="C1118" s="11"/>
       <c r="D1118" s="12"/>
-      <c r="E1118" s="16"/>
+      <c r="E1118" s="12"/>
       <c r="F1118" s="12"/>
     </row>
     <row r="1119" spans="1:6" ht="18" x14ac:dyDescent="0.25">
@@ -10678,7 +10611,7 @@
       <c r="F1120" s="12"/>
     </row>
     <row r="1121" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1121" s="18" t="s">
+      <c r="A1121" s="1" t="s">
         <v>797</v>
       </c>
       <c r="C1121" s="11"/>
@@ -10687,7 +10620,7 @@
       <c r="F1121" s="12"/>
     </row>
     <row r="1122" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1122" s="18" t="s">
+      <c r="A1122" s="1" t="s">
         <v>798</v>
       </c>
       <c r="C1122" s="11"/>
@@ -10705,7 +10638,7 @@
       <c r="F1123" s="12"/>
     </row>
     <row r="1124" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1124" s="18" t="s">
+      <c r="A1124" s="1" t="s">
         <v>799</v>
       </c>
       <c r="C1124" s="11"/>
@@ -10714,7 +10647,7 @@
       <c r="F1124" s="12"/>
     </row>
     <row r="1125" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1125" s="18" t="s">
+      <c r="A1125" s="1" t="s">
         <v>800</v>
       </c>
       <c r="C1125" s="11"/>
@@ -10741,7 +10674,7 @@
       <c r="F1127" s="12"/>
     </row>
     <row r="1128" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1128" s="18" t="s">
+      <c r="A1128" s="1" t="s">
         <v>801</v>
       </c>
       <c r="C1128" s="11"/>
@@ -10759,7 +10692,7 @@
       <c r="F1129" s="12"/>
     </row>
     <row r="1130" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1130" s="18" t="s">
+      <c r="A1130" s="1" t="s">
         <v>802</v>
       </c>
       <c r="C1130" s="11"/>
@@ -10777,7 +10710,7 @@
       <c r="F1131" s="12"/>
     </row>
     <row r="1132" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1132" s="18" t="s">
+      <c r="A1132" s="1" t="s">
         <v>803</v>
       </c>
       <c r="C1132" s="11"/>
@@ -10786,7 +10719,7 @@
       <c r="F1132" s="12"/>
     </row>
     <row r="1133" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1133" s="18" t="s">
+      <c r="A1133" s="1" t="s">
         <v>804</v>
       </c>
       <c r="C1133" s="11"/>
@@ -10795,7 +10728,7 @@
       <c r="F1133" s="12"/>
     </row>
     <row r="1134" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1134" s="18" t="s">
+      <c r="A1134" s="1" t="s">
         <v>805</v>
       </c>
       <c r="C1134" s="11"/>
@@ -10804,7 +10737,7 @@
       <c r="F1134" s="12"/>
     </row>
     <row r="1135" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1135" s="18" t="s">
+      <c r="A1135" s="1" t="s">
         <v>806</v>
       </c>
       <c r="C1135" s="11"/>
@@ -10858,7 +10791,7 @@
       <c r="F1140" s="12"/>
     </row>
     <row r="1141" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1141" s="18" t="s">
+      <c r="A1141" s="1" t="s">
         <v>807</v>
       </c>
       <c r="C1141" s="11"/>
@@ -10876,7 +10809,7 @@
       <c r="F1142" s="12"/>
     </row>
     <row r="1143" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1143" s="18" t="s">
+      <c r="A1143" s="1" t="s">
         <v>808</v>
       </c>
       <c r="C1143" s="11"/>
@@ -10885,7 +10818,7 @@
       <c r="F1143" s="12"/>
     </row>
     <row r="1144" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1144" s="18" t="s">
+      <c r="A1144" s="1" t="s">
         <v>809</v>
       </c>
       <c r="C1144" s="11"/>
@@ -10903,7 +10836,7 @@
       <c r="F1145" s="12"/>
     </row>
     <row r="1146" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1146" s="18" t="s">
+      <c r="A1146" s="1" t="s">
         <v>810</v>
       </c>
       <c r="C1146" s="11"/>
@@ -10912,7 +10845,7 @@
       <c r="F1146" s="12"/>
     </row>
     <row r="1147" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1147" s="18" t="s">
+      <c r="A1147" s="1" t="s">
         <v>811</v>
       </c>
       <c r="C1147" s="11"/>
@@ -10921,7 +10854,7 @@
       <c r="F1147" s="12"/>
     </row>
     <row r="1148" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1148" s="18" t="s">
+      <c r="A1148" s="1" t="s">
         <v>812</v>
       </c>
       <c r="C1148" s="11"/>
@@ -10930,7 +10863,7 @@
       <c r="F1148" s="12"/>
     </row>
     <row r="1149" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1149" s="18" t="s">
+      <c r="A1149" s="1" t="s">
         <v>813</v>
       </c>
       <c r="C1149" s="11"/>
@@ -10939,7 +10872,7 @@
       <c r="F1149" s="12"/>
     </row>
     <row r="1150" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1150" s="18" t="s">
+      <c r="A1150" s="1" t="s">
         <v>814</v>
       </c>
       <c r="C1150" s="11"/>
@@ -10948,7 +10881,7 @@
       <c r="F1150" s="12"/>
     </row>
     <row r="1151" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1151" s="18" t="s">
+      <c r="A1151" s="1" t="s">
         <v>815</v>
       </c>
       <c r="C1151" s="11"/>
@@ -10957,7 +10890,7 @@
       <c r="F1151" s="12"/>
     </row>
     <row r="1152" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1152" s="19" t="s">
+      <c r="A1152" s="3" t="s">
         <v>1081</v>
       </c>
       <c r="C1152" s="11"/>
@@ -10966,7 +10899,7 @@
       <c r="F1152" s="12"/>
     </row>
     <row r="1153" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1153" s="18" t="s">
+      <c r="A1153" s="1" t="s">
         <v>816</v>
       </c>
       <c r="C1153" s="11"/>
@@ -10975,7 +10908,7 @@
       <c r="F1153" s="12"/>
     </row>
     <row r="1154" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1154" s="19" t="s">
+      <c r="A1154" s="3" t="s">
         <v>1068</v>
       </c>
       <c r="C1154" s="11"/>
@@ -10984,7 +10917,7 @@
       <c r="F1154" s="12"/>
     </row>
     <row r="1155" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1155" s="18" t="s">
+      <c r="A1155" s="1" t="s">
         <v>817</v>
       </c>
       <c r="C1155" s="11"/>
@@ -11011,7 +10944,7 @@
       <c r="F1157" s="12"/>
     </row>
     <row r="1158" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1158" s="18" t="s">
+      <c r="A1158" s="1" t="s">
         <v>818</v>
       </c>
       <c r="C1158" s="11"/>
@@ -11020,7 +10953,7 @@
       <c r="F1158" s="12"/>
     </row>
     <row r="1159" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1159" s="18" t="s">
+      <c r="A1159" s="1" t="s">
         <v>819</v>
       </c>
       <c r="C1159" s="11"/>
@@ -11029,7 +10962,7 @@
       <c r="F1159" s="12"/>
     </row>
     <row r="1160" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1160" s="18" t="s">
+      <c r="A1160" s="1" t="s">
         <v>820</v>
       </c>
       <c r="C1160" s="11"/>
@@ -11038,7 +10971,7 @@
       <c r="F1160" s="12"/>
     </row>
     <row r="1161" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1161" s="18" t="s">
+      <c r="A1161" s="1" t="s">
         <v>821</v>
       </c>
       <c r="C1161" s="11"/>
@@ -11047,7 +10980,7 @@
       <c r="F1161" s="12"/>
     </row>
     <row r="1162" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1162" s="18" t="s">
+      <c r="A1162" s="1" t="s">
         <v>822</v>
       </c>
       <c r="C1162" s="11"/>
@@ -11056,7 +10989,7 @@
       <c r="F1162" s="12"/>
     </row>
     <row r="1163" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1163" s="19" t="s">
+      <c r="A1163" s="3" t="s">
         <v>1094</v>
       </c>
       <c r="C1163" s="11"/>
@@ -11065,7 +10998,7 @@
       <c r="F1163" s="12"/>
     </row>
     <row r="1164" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1164" s="18" t="s">
+      <c r="A1164" s="1" t="s">
         <v>823</v>
       </c>
       <c r="C1164" s="11"/>
@@ -11074,7 +11007,7 @@
       <c r="F1164" s="12"/>
     </row>
     <row r="1165" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1165" s="18" t="s">
+      <c r="A1165" s="1" t="s">
         <v>824</v>
       </c>
       <c r="C1165" s="11"/>
@@ -11083,7 +11016,7 @@
       <c r="F1165" s="12"/>
     </row>
     <row r="1166" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1166" s="18" t="s">
+      <c r="A1166" s="1" t="s">
         <v>825</v>
       </c>
       <c r="C1166" s="11"/>
@@ -11092,7 +11025,7 @@
       <c r="F1166" s="12"/>
     </row>
     <row r="1167" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1167" s="18" t="s">
+      <c r="A1167" s="1" t="s">
         <v>826</v>
       </c>
       <c r="C1167" s="11"/>
@@ -11101,7 +11034,7 @@
       <c r="F1167" s="12"/>
     </row>
     <row r="1168" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1168" s="19" t="s">
+      <c r="A1168" s="3" t="s">
         <v>1069</v>
       </c>
       <c r="C1168" s="11"/>
@@ -11110,7 +11043,7 @@
       <c r="F1168" s="12"/>
     </row>
     <row r="1169" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1169" s="18" t="s">
+      <c r="A1169" s="1" t="s">
         <v>827</v>
       </c>
       <c r="C1169" s="11"/>
@@ -11119,7 +11052,7 @@
       <c r="F1169" s="12"/>
     </row>
     <row r="1170" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1170" s="18" t="s">
+      <c r="A1170" s="1" t="s">
         <v>828</v>
       </c>
       <c r="C1170" s="11"/>
@@ -11128,7 +11061,7 @@
       <c r="F1170" s="12"/>
     </row>
     <row r="1171" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1171" s="18" t="s">
+      <c r="A1171" s="1" t="s">
         <v>829</v>
       </c>
       <c r="C1171" s="11"/>
@@ -11137,7 +11070,7 @@
       <c r="F1171" s="12"/>
     </row>
     <row r="1172" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1172" s="18" t="s">
+      <c r="A1172" s="1" t="s">
         <v>830</v>
       </c>
       <c r="C1172" s="11"/>
@@ -11146,7 +11079,7 @@
       <c r="F1172" s="12"/>
     </row>
     <row r="1173" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1173" s="18" t="s">
+      <c r="A1173" s="1" t="s">
         <v>831</v>
       </c>
       <c r="C1173" s="11"/>
@@ -11155,7 +11088,7 @@
       <c r="F1173" s="12"/>
     </row>
     <row r="1174" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1174" s="18" t="s">
+      <c r="A1174" s="1" t="s">
         <v>832</v>
       </c>
       <c r="C1174" s="11"/>
@@ -11173,7 +11106,7 @@
       <c r="F1175" s="12"/>
     </row>
     <row r="1176" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1176" s="18" t="s">
+      <c r="A1176" s="1" t="s">
         <v>833</v>
       </c>
       <c r="C1176" s="11"/>
@@ -11182,7 +11115,7 @@
       <c r="F1176" s="12"/>
     </row>
     <row r="1177" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1177" s="18" t="s">
+      <c r="A1177" s="1" t="s">
         <v>834</v>
       </c>
       <c r="C1177" s="11"/>
@@ -11191,7 +11124,7 @@
       <c r="F1177" s="12"/>
     </row>
     <row r="1178" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1178" s="18" t="s">
+      <c r="A1178" s="1" t="s">
         <v>835</v>
       </c>
       <c r="C1178" s="11"/>
@@ -11200,7 +11133,7 @@
       <c r="F1178" s="12"/>
     </row>
     <row r="1179" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1179" s="18" t="s">
+      <c r="A1179" s="1" t="s">
         <v>836</v>
       </c>
       <c r="C1179" s="11"/>
@@ -11218,7 +11151,7 @@
       <c r="F1180" s="12"/>
     </row>
     <row r="1181" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1181" s="19" t="s">
+      <c r="A1181" s="3" t="s">
         <v>1095</v>
       </c>
       <c r="C1181" s="11"/>
@@ -11227,7 +11160,7 @@
       <c r="F1181" s="12"/>
     </row>
     <row r="1182" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1182" s="18" t="s">
+      <c r="A1182" s="1" t="s">
         <v>837</v>
       </c>
       <c r="C1182" s="11"/>
@@ -11236,7 +11169,7 @@
       <c r="F1182" s="12"/>
     </row>
     <row r="1183" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1183" s="18" t="s">
+      <c r="A1183" s="1" t="s">
         <v>838</v>
       </c>
       <c r="C1183" s="11"/>
@@ -11245,7 +11178,7 @@
       <c r="F1183" s="12"/>
     </row>
     <row r="1184" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1184" s="18" t="s">
+      <c r="A1184" s="1" t="s">
         <v>839</v>
       </c>
       <c r="C1184" s="11"/>
@@ -11254,7 +11187,7 @@
       <c r="F1184" s="12"/>
     </row>
     <row r="1185" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1185" s="18" t="s">
+      <c r="A1185" s="1" t="s">
         <v>840</v>
       </c>
       <c r="C1185" s="11"/>
@@ -11263,7 +11196,7 @@
       <c r="F1185" s="12"/>
     </row>
     <row r="1186" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1186" s="18" t="s">
+      <c r="A1186" s="1" t="s">
         <v>841</v>
       </c>
       <c r="C1186" s="11"/>
@@ -11281,7 +11214,7 @@
       <c r="F1187" s="12"/>
     </row>
     <row r="1188" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1188" s="18" t="s">
+      <c r="A1188" s="1" t="s">
         <v>842</v>
       </c>
       <c r="C1188" s="11"/>
@@ -11290,7 +11223,7 @@
       <c r="F1188" s="12"/>
     </row>
     <row r="1189" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1189" s="18" t="s">
+      <c r="A1189" s="1" t="s">
         <v>843</v>
       </c>
       <c r="C1189" s="11"/>
@@ -11299,7 +11232,7 @@
       <c r="F1189" s="12"/>
     </row>
     <row r="1190" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1190" s="18" t="s">
+      <c r="A1190" s="1" t="s">
         <v>844</v>
       </c>
       <c r="C1190" s="11"/>
@@ -11308,7 +11241,7 @@
       <c r="F1190" s="12"/>
     </row>
     <row r="1191" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1191" s="18" t="s">
+      <c r="A1191" s="1" t="s">
         <v>845</v>
       </c>
       <c r="C1191" s="11"/>
@@ -11317,7 +11250,7 @@
       <c r="F1191" s="12"/>
     </row>
     <row r="1192" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1192" s="18" t="s">
+      <c r="A1192" s="1" t="s">
         <v>846</v>
       </c>
       <c r="C1192" s="11"/>
@@ -11326,7 +11259,7 @@
       <c r="F1192" s="12"/>
     </row>
     <row r="1193" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1193" s="18" t="s">
+      <c r="A1193" s="1" t="s">
         <v>847</v>
       </c>
       <c r="C1193" s="11"/>
@@ -11344,7 +11277,7 @@
       <c r="F1194" s="12"/>
     </row>
     <row r="1195" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1195" s="18" t="s">
+      <c r="A1195" s="1" t="s">
         <v>848</v>
       </c>
       <c r="C1195" s="11"/>
@@ -11353,7 +11286,7 @@
       <c r="F1195" s="12"/>
     </row>
     <row r="1196" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1196" s="18" t="s">
+      <c r="A1196" s="1" t="s">
         <v>849</v>
       </c>
       <c r="C1196" s="11"/>
@@ -11371,7 +11304,7 @@
       <c r="F1197" s="12"/>
     </row>
     <row r="1198" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1198" s="18" t="s">
+      <c r="A1198" s="1" t="s">
         <v>850</v>
       </c>
       <c r="C1198" s="11"/>
@@ -11380,7 +11313,7 @@
       <c r="F1198" s="12"/>
     </row>
     <row r="1199" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1199" s="18" t="s">
+      <c r="A1199" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C1199" s="11"/>
@@ -11398,7 +11331,7 @@
       <c r="F1200" s="12"/>
     </row>
     <row r="1201" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1201" s="18" t="s">
+      <c r="A1201" s="1" t="s">
         <v>852</v>
       </c>
       <c r="C1201" s="11"/>
@@ -11407,7 +11340,7 @@
       <c r="F1201" s="12"/>
     </row>
     <row r="1202" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1202" s="18" t="s">
+      <c r="A1202" s="1" t="s">
         <v>853</v>
       </c>
       <c r="C1202" s="11"/>
@@ -11416,7 +11349,7 @@
       <c r="F1202" s="12"/>
     </row>
     <row r="1203" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1203" s="18" t="s">
+      <c r="A1203" s="1" t="s">
         <v>854</v>
       </c>
       <c r="C1203" s="11"/>
@@ -11425,7 +11358,7 @@
       <c r="F1203" s="12"/>
     </row>
     <row r="1204" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1204" s="19" t="s">
+      <c r="A1204" s="3" t="s">
         <v>1046</v>
       </c>
       <c r="C1204" s="11"/>
@@ -11434,7 +11367,7 @@
       <c r="F1204" s="12"/>
     </row>
     <row r="1205" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1205" s="18" t="s">
+      <c r="A1205" s="1" t="s">
         <v>855</v>
       </c>
       <c r="C1205" s="11"/>
@@ -11443,7 +11376,7 @@
       <c r="F1205" s="12"/>
     </row>
     <row r="1206" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1206" s="18" t="s">
+      <c r="A1206" s="1" t="s">
         <v>856</v>
       </c>
       <c r="C1206" s="11"/>
@@ -11452,7 +11385,7 @@
       <c r="F1206" s="12"/>
     </row>
     <row r="1207" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1207" s="18" t="s">
+      <c r="A1207" s="1" t="s">
         <v>857</v>
       </c>
       <c r="C1207" s="11"/>
@@ -11479,7 +11412,7 @@
       <c r="F1209" s="12"/>
     </row>
     <row r="1210" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1210" s="20" t="s">
+      <c r="A1210" s="1" t="s">
         <v>858</v>
       </c>
       <c r="C1210" s="11"/>
@@ -11488,25 +11421,25 @@
       <c r="F1210" s="12"/>
     </row>
     <row r="1211" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1211" s="21" t="s">
+      <c r="A1211" s="1" t="s">
         <v>859</v>
       </c>
       <c r="C1211" s="11"/>
       <c r="D1211" s="12"/>
-      <c r="E1211" s="14"/>
-      <c r="F1211" s="15"/>
+      <c r="E1211" s="12"/>
+      <c r="F1211" s="12"/>
     </row>
     <row r="1212" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1212" s="18" t="s">
+      <c r="A1212" s="1" t="s">
         <v>860</v>
       </c>
       <c r="C1212" s="11"/>
       <c r="D1212" s="12"/>
-      <c r="E1212" s="16"/>
+      <c r="E1212" s="12"/>
       <c r="F1212" s="12"/>
     </row>
     <row r="1213" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1213" s="18" t="s">
+      <c r="A1213" s="1" t="s">
         <v>861</v>
       </c>
       <c r="C1213" s="11"/>
@@ -11515,7 +11448,7 @@
       <c r="F1213" s="12"/>
     </row>
     <row r="1214" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1214" s="18" t="s">
+      <c r="A1214" s="1" t="s">
         <v>862</v>
       </c>
       <c r="C1214" s="11"/>
@@ -11524,7 +11457,7 @@
       <c r="F1214" s="12"/>
     </row>
     <row r="1215" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1215" s="18" t="s">
+      <c r="A1215" s="1" t="s">
         <v>863</v>
       </c>
       <c r="C1215" s="11"/>
@@ -11533,7 +11466,7 @@
       <c r="F1215" s="12"/>
     </row>
     <row r="1216" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1216" s="18" t="s">
+      <c r="A1216" s="1" t="s">
         <v>864</v>
       </c>
       <c r="C1216" s="11"/>
@@ -11542,7 +11475,7 @@
       <c r="F1216" s="12"/>
     </row>
     <row r="1217" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1217" s="18" t="s">
+      <c r="A1217" s="1" t="s">
         <v>865</v>
       </c>
       <c r="C1217" s="11"/>
@@ -11551,7 +11484,7 @@
       <c r="F1217" s="12"/>
     </row>
     <row r="1218" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1218" s="18" t="s">
+      <c r="A1218" s="1" t="s">
         <v>866</v>
       </c>
       <c r="C1218" s="11"/>
@@ -11560,7 +11493,7 @@
       <c r="F1218" s="12"/>
     </row>
     <row r="1219" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1219" s="18" t="s">
+      <c r="A1219" s="1" t="s">
         <v>867</v>
       </c>
       <c r="C1219" s="11"/>
@@ -11578,7 +11511,7 @@
       <c r="F1220" s="12"/>
     </row>
     <row r="1221" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1221" s="18" t="s">
+      <c r="A1221" s="1" t="s">
         <v>868</v>
       </c>
       <c r="C1221" s="11"/>
@@ -11587,7 +11520,7 @@
       <c r="F1221" s="12"/>
     </row>
     <row r="1222" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1222" s="19" t="s">
+      <c r="A1222" s="3" t="s">
         <v>1064</v>
       </c>
       <c r="C1222" s="11"/>
@@ -11596,7 +11529,7 @@
       <c r="F1222" s="12"/>
     </row>
     <row r="1223" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1223" s="18" t="s">
+      <c r="A1223" s="1" t="s">
         <v>869</v>
       </c>
       <c r="C1223" s="11"/>
@@ -11605,7 +11538,7 @@
       <c r="F1223" s="12"/>
     </row>
     <row r="1224" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1224" s="18" t="s">
+      <c r="A1224" s="1" t="s">
         <v>870</v>
       </c>
       <c r="C1224" s="11"/>
@@ -11614,7 +11547,7 @@
       <c r="F1224" s="12"/>
     </row>
     <row r="1225" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1225" s="18" t="s">
+      <c r="A1225" s="1" t="s">
         <v>871</v>
       </c>
       <c r="C1225" s="11"/>
@@ -11623,7 +11556,7 @@
       <c r="F1225" s="12"/>
     </row>
     <row r="1226" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1226" s="18" t="s">
+      <c r="A1226" s="1" t="s">
         <v>872</v>
       </c>
       <c r="C1226" s="11"/>
@@ -11632,7 +11565,7 @@
       <c r="F1226" s="12"/>
     </row>
     <row r="1227" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1227" s="18" t="s">
+      <c r="A1227" s="1" t="s">
         <v>873</v>
       </c>
       <c r="C1227" s="11"/>
@@ -11641,7 +11574,7 @@
       <c r="F1227" s="12"/>
     </row>
     <row r="1228" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1228" s="18" t="s">
+      <c r="A1228" s="1" t="s">
         <v>874</v>
       </c>
       <c r="C1228" s="11"/>
@@ -11650,7 +11583,7 @@
       <c r="F1228" s="12"/>
     </row>
     <row r="1229" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1229" s="18" t="s">
+      <c r="A1229" s="1" t="s">
         <v>875</v>
       </c>
       <c r="C1229" s="11"/>
@@ -11659,7 +11592,7 @@
       <c r="F1229" s="12"/>
     </row>
     <row r="1230" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1230" s="18" t="s">
+      <c r="A1230" s="1" t="s">
         <v>876</v>
       </c>
       <c r="C1230" s="11"/>
@@ -11677,7 +11610,7 @@
       <c r="F1231" s="12"/>
     </row>
     <row r="1232" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1232" s="19" t="s">
+      <c r="A1232" s="3" t="s">
         <v>1047</v>
       </c>
       <c r="C1232" s="11"/>
@@ -11686,7 +11619,7 @@
       <c r="F1232" s="12"/>
     </row>
     <row r="1233" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1233" s="18" t="s">
+      <c r="A1233" s="1" t="s">
         <v>877</v>
       </c>
       <c r="C1233" s="11"/>
@@ -11695,7 +11628,7 @@
       <c r="F1233" s="12"/>
     </row>
     <row r="1234" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1234" s="18" t="s">
+      <c r="A1234" s="1" t="s">
         <v>878</v>
       </c>
       <c r="C1234" s="11"/>
@@ -11704,7 +11637,7 @@
       <c r="F1234" s="12"/>
     </row>
     <row r="1235" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1235" s="18" t="s">
+      <c r="A1235" s="1" t="s">
         <v>879</v>
       </c>
       <c r="C1235" s="11"/>
@@ -11713,7 +11646,7 @@
       <c r="F1235" s="12"/>
     </row>
     <row r="1236" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1236" s="18" t="s">
+      <c r="A1236" s="1" t="s">
         <v>880</v>
       </c>
       <c r="C1236" s="11"/>
@@ -11722,7 +11655,7 @@
       <c r="F1236" s="12"/>
     </row>
     <row r="1237" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1237" s="22" t="s">
+      <c r="A1237" s="10" t="s">
         <v>1361</v>
       </c>
       <c r="C1237" s="11"/>
@@ -11731,21 +11664,21 @@
       <c r="F1237" s="12"/>
     </row>
     <row r="1238" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1238" s="21" t="s">
+      <c r="A1238" s="1" t="s">
         <v>881</v>
       </c>
       <c r="C1238" s="11"/>
       <c r="D1238" s="12"/>
-      <c r="E1238" s="14"/>
-      <c r="F1238" s="15"/>
+      <c r="E1238" s="12"/>
+      <c r="F1238" s="12"/>
     </row>
     <row r="1239" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1239" s="18" t="s">
+      <c r="A1239" s="1" t="s">
         <v>882</v>
       </c>
       <c r="C1239" s="11"/>
       <c r="D1239" s="12"/>
-      <c r="E1239" s="16"/>
+      <c r="E1239" s="12"/>
       <c r="F1239" s="12"/>
     </row>
     <row r="1240" spans="1:6" ht="18" x14ac:dyDescent="0.25">
@@ -11758,7 +11691,7 @@
       <c r="F1240" s="12"/>
     </row>
     <row r="1241" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1241" s="20" t="s">
+      <c r="A1241" s="1" t="s">
         <v>883</v>
       </c>
       <c r="C1241" s="11"/>
@@ -11767,25 +11700,25 @@
       <c r="F1241" s="12"/>
     </row>
     <row r="1242" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1242" s="21" t="s">
+      <c r="A1242" s="1" t="s">
         <v>884</v>
       </c>
       <c r="C1242" s="11"/>
       <c r="D1242" s="12"/>
-      <c r="E1242" s="14"/>
-      <c r="F1242" s="15"/>
+      <c r="E1242" s="12"/>
+      <c r="F1242" s="12"/>
     </row>
     <row r="1243" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1243" s="18" t="s">
+      <c r="A1243" s="1" t="s">
         <v>885</v>
       </c>
       <c r="C1243" s="11"/>
       <c r="D1243" s="12"/>
-      <c r="E1243" s="16"/>
+      <c r="E1243" s="12"/>
       <c r="F1243" s="12"/>
     </row>
     <row r="1244" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1244" s="18" t="s">
+      <c r="A1244" s="1" t="s">
         <v>886</v>
       </c>
       <c r="C1244" s="11"/>
@@ -11794,7 +11727,7 @@
       <c r="F1244" s="12"/>
     </row>
     <row r="1245" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1245" s="18" t="s">
+      <c r="A1245" s="1" t="s">
         <v>887</v>
       </c>
       <c r="C1245" s="11"/>
@@ -11803,7 +11736,7 @@
       <c r="F1245" s="12"/>
     </row>
     <row r="1246" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1246" s="18" t="s">
+      <c r="A1246" s="1" t="s">
         <v>888</v>
       </c>
       <c r="C1246" s="11"/>
@@ -11812,7 +11745,7 @@
       <c r="F1246" s="12"/>
     </row>
     <row r="1247" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1247" s="18" t="s">
+      <c r="A1247" s="1" t="s">
         <v>889</v>
       </c>
       <c r="C1247" s="11"/>
@@ -11821,7 +11754,7 @@
       <c r="F1247" s="12"/>
     </row>
     <row r="1248" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1248" s="18" t="s">
+      <c r="A1248" s="1" t="s">
         <v>890</v>
       </c>
       <c r="C1248" s="11"/>
@@ -11830,7 +11763,7 @@
       <c r="F1248" s="12"/>
     </row>
     <row r="1249" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1249" s="18" t="s">
+      <c r="A1249" s="1" t="s">
         <v>891</v>
       </c>
       <c r="C1249" s="11"/>
@@ -11839,7 +11772,7 @@
       <c r="F1249" s="12"/>
     </row>
     <row r="1250" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1250" s="18" t="s">
+      <c r="A1250" s="1" t="s">
         <v>892</v>
       </c>
       <c r="C1250" s="11"/>
@@ -11848,7 +11781,7 @@
       <c r="F1250" s="12"/>
     </row>
     <row r="1251" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1251" s="25" t="s">
+      <c r="A1251" s="3" t="s">
         <v>1060</v>
       </c>
       <c r="C1251" s="11"/>
@@ -11857,25 +11790,25 @@
       <c r="F1251" s="12"/>
     </row>
     <row r="1252" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1252" s="21" t="s">
+      <c r="A1252" s="1" t="s">
         <v>893</v>
       </c>
       <c r="C1252" s="11"/>
       <c r="D1252" s="12"/>
-      <c r="E1252" s="14"/>
-      <c r="F1252" s="15"/>
+      <c r="E1252" s="12"/>
+      <c r="F1252" s="12"/>
     </row>
     <row r="1253" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1253" s="18" t="s">
+      <c r="A1253" s="1" t="s">
         <v>894</v>
       </c>
       <c r="C1253" s="11"/>
       <c r="D1253" s="12"/>
-      <c r="E1253" s="16"/>
+      <c r="E1253" s="12"/>
       <c r="F1253" s="12"/>
     </row>
     <row r="1254" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1254" s="18" t="s">
+      <c r="A1254" s="1" t="s">
         <v>895</v>
       </c>
       <c r="C1254" s="11"/>
@@ -11884,7 +11817,7 @@
       <c r="F1254" s="12"/>
     </row>
     <row r="1255" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1255" s="19" t="s">
+      <c r="A1255" s="3" t="s">
         <v>1048</v>
       </c>
       <c r="C1255" s="11"/>
@@ -11893,7 +11826,7 @@
       <c r="F1255" s="12"/>
     </row>
     <row r="1256" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1256" s="18" t="s">
+      <c r="A1256" s="1" t="s">
         <v>896</v>
       </c>
       <c r="C1256" s="11"/>
@@ -11902,7 +11835,7 @@
       <c r="F1256" s="12"/>
     </row>
     <row r="1257" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1257" s="18" t="s">
+      <c r="A1257" s="1" t="s">
         <v>897</v>
       </c>
       <c r="C1257" s="11"/>
@@ -11911,7 +11844,7 @@
       <c r="F1257" s="12"/>
     </row>
     <row r="1258" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1258" s="18" t="s">
+      <c r="A1258" s="1" t="s">
         <v>898</v>
       </c>
       <c r="C1258" s="11"/>
@@ -11920,7 +11853,7 @@
       <c r="F1258" s="12"/>
     </row>
     <row r="1259" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1259" s="18" t="s">
+      <c r="A1259" s="1" t="s">
         <v>899</v>
       </c>
       <c r="C1259" s="11"/>
@@ -11929,7 +11862,7 @@
       <c r="F1259" s="12"/>
     </row>
     <row r="1260" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1260" s="18" t="s">
+      <c r="A1260" s="1" t="s">
         <v>900</v>
       </c>
       <c r="C1260" s="11"/>
@@ -11938,7 +11871,7 @@
       <c r="F1260" s="12"/>
     </row>
     <row r="1261" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1261" s="18" t="s">
+      <c r="A1261" s="1" t="s">
         <v>901</v>
       </c>
       <c r="C1261" s="11"/>
@@ -11947,7 +11880,7 @@
       <c r="F1261" s="12"/>
     </row>
     <row r="1262" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1262" s="19" t="s">
+      <c r="A1262" s="3" t="s">
         <v>1061</v>
       </c>
       <c r="C1262" s="11"/>
@@ -11956,7 +11889,7 @@
       <c r="F1262" s="12"/>
     </row>
     <row r="1263" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1263" s="20" t="s">
+      <c r="A1263" s="1" t="s">
         <v>902</v>
       </c>
       <c r="C1263" s="11"/>
@@ -11965,25 +11898,25 @@
       <c r="F1263" s="12"/>
     </row>
     <row r="1264" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1264" s="13" t="s">
+      <c r="A1264" s="10" t="s">
         <v>1104</v>
       </c>
       <c r="C1264" s="11"/>
       <c r="D1264" s="12"/>
-      <c r="E1264" s="14"/>
-      <c r="F1264" s="15"/>
+      <c r="E1264" s="12"/>
+      <c r="F1264" s="12"/>
     </row>
     <row r="1265" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1265" s="18" t="s">
+      <c r="A1265" s="1" t="s">
         <v>903</v>
       </c>
       <c r="C1265" s="11"/>
       <c r="D1265" s="12"/>
-      <c r="E1265" s="16"/>
+      <c r="E1265" s="12"/>
       <c r="F1265" s="12"/>
     </row>
     <row r="1266" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1266" s="18" t="s">
+      <c r="A1266" s="1" t="s">
         <v>904</v>
       </c>
       <c r="C1266" s="11"/>
@@ -12001,7 +11934,7 @@
       <c r="F1267" s="12"/>
     </row>
     <row r="1268" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1268" s="22" t="s">
+      <c r="A1268" s="10" t="s">
         <v>1145</v>
       </c>
       <c r="C1268" s="11"/>
@@ -12010,25 +11943,25 @@
       <c r="F1268" s="12"/>
     </row>
     <row r="1269" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1269" s="13" t="s">
+      <c r="A1269" s="10" t="s">
         <v>1430</v>
       </c>
       <c r="C1269" s="11"/>
       <c r="D1269" s="12"/>
-      <c r="E1269" s="14"/>
-      <c r="F1269" s="15"/>
+      <c r="E1269" s="12"/>
+      <c r="F1269" s="12"/>
     </row>
     <row r="1270" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1270" s="18" t="s">
+      <c r="A1270" s="1" t="s">
         <v>905</v>
       </c>
       <c r="C1270" s="11"/>
       <c r="D1270" s="12"/>
-      <c r="E1270" s="16"/>
+      <c r="E1270" s="12"/>
       <c r="F1270" s="12"/>
     </row>
     <row r="1271" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1271" s="18" t="s">
+      <c r="A1271" s="1" t="s">
         <v>906</v>
       </c>
       <c r="C1271" s="11"/>
@@ -12055,7 +11988,7 @@
       <c r="F1273" s="12"/>
     </row>
     <row r="1274" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1274" s="18" t="s">
+      <c r="A1274" s="1" t="s">
         <v>907</v>
       </c>
       <c r="C1274" s="11"/>
@@ -12064,7 +11997,7 @@
       <c r="F1274" s="12"/>
     </row>
     <row r="1275" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1275" s="19" t="s">
+      <c r="A1275" s="3" t="s">
         <v>1087</v>
       </c>
       <c r="C1275" s="11"/>
@@ -12073,7 +12006,7 @@
       <c r="F1275" s="12"/>
     </row>
     <row r="1276" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1276" s="18" t="s">
+      <c r="A1276" s="1" t="s">
         <v>908</v>
       </c>
       <c r="C1276" s="11"/>
@@ -12082,7 +12015,7 @@
       <c r="F1276" s="12"/>
     </row>
     <row r="1277" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1277" s="19" t="s">
+      <c r="A1277" s="3" t="s">
         <v>1070</v>
       </c>
       <c r="C1277" s="11"/>
@@ -12091,7 +12024,7 @@
       <c r="F1277" s="12"/>
     </row>
     <row r="1278" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1278" s="20" t="s">
+      <c r="A1278" s="1" t="s">
         <v>909</v>
       </c>
       <c r="C1278" s="11"/>
@@ -12100,25 +12033,25 @@
       <c r="F1278" s="12"/>
     </row>
     <row r="1279" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1279" s="21" t="s">
+      <c r="A1279" s="1" t="s">
         <v>910</v>
       </c>
       <c r="C1279" s="11"/>
       <c r="D1279" s="12"/>
-      <c r="E1279" s="14"/>
-      <c r="F1279" s="15"/>
+      <c r="E1279" s="12"/>
+      <c r="F1279" s="12"/>
     </row>
     <row r="1280" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1280" s="18" t="s">
+      <c r="A1280" s="1" t="s">
         <v>911</v>
       </c>
       <c r="C1280" s="11"/>
       <c r="D1280" s="12"/>
-      <c r="E1280" s="16"/>
+      <c r="E1280" s="12"/>
       <c r="F1280" s="12"/>
     </row>
     <row r="1281" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1281" s="18" t="s">
+      <c r="A1281" s="1" t="s">
         <v>912</v>
       </c>
       <c r="C1281" s="11"/>
@@ -12136,7 +12069,7 @@
       <c r="F1282" s="12"/>
     </row>
     <row r="1283" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1283" s="18" t="s">
+      <c r="A1283" s="1" t="s">
         <v>913</v>
       </c>
       <c r="C1283" s="11"/>
@@ -12145,7 +12078,7 @@
       <c r="F1283" s="12"/>
     </row>
     <row r="1284" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1284" s="22" t="s">
+      <c r="A1284" s="10" t="s">
         <v>1389</v>
       </c>
       <c r="C1284" s="11"/>
@@ -12154,13 +12087,13 @@
       <c r="F1284" s="12"/>
     </row>
     <row r="1285" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1285" s="21" t="s">
+      <c r="A1285" s="1" t="s">
         <v>914</v>
       </c>
       <c r="C1285" s="11"/>
       <c r="D1285" s="12"/>
-      <c r="E1285" s="14"/>
-      <c r="F1285" s="15"/>
+      <c r="E1285" s="12"/>
+      <c r="F1285" s="12"/>
     </row>
     <row r="1286" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1286" s="10" t="s">
@@ -12168,11 +12101,11 @@
       </c>
       <c r="C1286" s="11"/>
       <c r="D1286" s="12"/>
-      <c r="E1286" s="16"/>
+      <c r="E1286" s="12"/>
       <c r="F1286" s="12"/>
     </row>
     <row r="1287" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1287" s="18" t="s">
+      <c r="A1287" s="1" t="s">
         <v>915</v>
       </c>
       <c r="C1287" s="11"/>
@@ -12181,7 +12114,7 @@
       <c r="F1287" s="12"/>
     </row>
     <row r="1288" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1288" s="18" t="s">
+      <c r="A1288" s="1" t="s">
         <v>916</v>
       </c>
       <c r="C1288" s="11"/>
@@ -12190,7 +12123,7 @@
       <c r="F1288" s="12"/>
     </row>
     <row r="1289" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1289" s="18" t="s">
+      <c r="A1289" s="1" t="s">
         <v>917</v>
       </c>
       <c r="C1289" s="11"/>
@@ -12199,7 +12132,7 @@
       <c r="F1289" s="12"/>
     </row>
     <row r="1290" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1290" s="18" t="s">
+      <c r="A1290" s="1" t="s">
         <v>918</v>
       </c>
       <c r="C1290" s="11"/>
@@ -12208,7 +12141,7 @@
       <c r="F1290" s="12"/>
     </row>
     <row r="1291" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1291" s="18" t="s">
+      <c r="A1291" s="1" t="s">
         <v>919</v>
       </c>
       <c r="C1291" s="11"/>
@@ -12226,7 +12159,7 @@
       <c r="F1292" s="12"/>
     </row>
     <row r="1293" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1293" s="18" t="s">
+      <c r="A1293" s="1" t="s">
         <v>920</v>
       </c>
       <c r="C1293" s="11"/>
@@ -12235,7 +12168,7 @@
       <c r="F1293" s="12"/>
     </row>
     <row r="1294" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1294" s="18" t="s">
+      <c r="A1294" s="1" t="s">
         <v>921</v>
       </c>
       <c r="C1294" s="11"/>
@@ -12244,7 +12177,7 @@
       <c r="F1294" s="12"/>
     </row>
     <row r="1295" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1295" s="18" t="s">
+      <c r="A1295" s="1" t="s">
         <v>922</v>
       </c>
       <c r="C1295" s="11"/>
@@ -12253,7 +12186,7 @@
       <c r="F1295" s="12"/>
     </row>
     <row r="1296" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1296" s="18" t="s">
+      <c r="A1296" s="1" t="s">
         <v>923</v>
       </c>
       <c r="C1296" s="11"/>
@@ -12262,7 +12195,7 @@
       <c r="F1296" s="12"/>
     </row>
     <row r="1297" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1297" s="18" t="s">
+      <c r="A1297" s="1" t="s">
         <v>924</v>
       </c>
       <c r="C1297" s="11"/>
@@ -12271,7 +12204,7 @@
       <c r="F1297" s="12"/>
     </row>
     <row r="1298" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1298" s="18" t="s">
+      <c r="A1298" s="1" t="s">
         <v>925</v>
       </c>
       <c r="C1298" s="11"/>
@@ -12280,7 +12213,7 @@
       <c r="F1298" s="12"/>
     </row>
     <row r="1299" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1299" s="18" t="s">
+      <c r="A1299" s="1" t="s">
         <v>926</v>
       </c>
       <c r="C1299" s="11"/>
@@ -12289,7 +12222,7 @@
       <c r="F1299" s="12"/>
     </row>
     <row r="1300" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1300" s="20" t="s">
+      <c r="A1300" s="1" t="s">
         <v>927</v>
       </c>
       <c r="C1300" s="11"/>
@@ -12298,43 +12231,43 @@
       <c r="F1300" s="12"/>
     </row>
     <row r="1301" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1301" s="21" t="s">
+      <c r="A1301" s="1" t="s">
         <v>928</v>
       </c>
       <c r="C1301" s="11"/>
       <c r="D1301" s="12"/>
-      <c r="E1301" s="14"/>
-      <c r="F1301" s="15"/>
+      <c r="E1301" s="12"/>
+      <c r="F1301" s="12"/>
     </row>
     <row r="1302" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1302" s="20" t="s">
+      <c r="A1302" s="1" t="s">
         <v>929</v>
       </c>
       <c r="C1302" s="11"/>
       <c r="D1302" s="12"/>
-      <c r="E1302" s="16"/>
+      <c r="E1302" s="12"/>
       <c r="F1302" s="12"/>
     </row>
     <row r="1303" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1303" s="23" t="s">
+      <c r="A1303" s="3" t="s">
         <v>1082</v>
       </c>
       <c r="C1303" s="11"/>
       <c r="D1303" s="12"/>
-      <c r="E1303" s="14"/>
-      <c r="F1303" s="15"/>
+      <c r="E1303" s="12"/>
+      <c r="F1303" s="12"/>
     </row>
     <row r="1304" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1304" s="18" t="s">
+      <c r="A1304" s="1" t="s">
         <v>930</v>
       </c>
       <c r="C1304" s="11"/>
       <c r="D1304" s="12"/>
-      <c r="E1304" s="16"/>
+      <c r="E1304" s="12"/>
       <c r="F1304" s="12"/>
     </row>
     <row r="1305" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1305" s="18" t="s">
+      <c r="A1305" s="1" t="s">
         <v>931</v>
       </c>
       <c r="C1305" s="11"/>
@@ -12343,7 +12276,7 @@
       <c r="F1305" s="12"/>
     </row>
     <row r="1306" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1306" s="18" t="s">
+      <c r="A1306" s="1" t="s">
         <v>932</v>
       </c>
       <c r="C1306" s="11"/>
@@ -12352,7 +12285,7 @@
       <c r="F1306" s="12"/>
     </row>
     <row r="1307" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1307" s="18" t="s">
+      <c r="A1307" s="1" t="s">
         <v>933</v>
       </c>
       <c r="C1307" s="11"/>
@@ -12361,7 +12294,7 @@
       <c r="F1307" s="12"/>
     </row>
     <row r="1308" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1308" s="18" t="s">
+      <c r="A1308" s="1" t="s">
         <v>934</v>
       </c>
       <c r="C1308" s="11"/>
@@ -12370,7 +12303,7 @@
       <c r="F1308" s="12"/>
     </row>
     <row r="1309" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1309" s="20" t="s">
+      <c r="A1309" s="1" t="s">
         <v>935</v>
       </c>
       <c r="C1309" s="11"/>
@@ -12379,21 +12312,21 @@
       <c r="F1309" s="12"/>
     </row>
     <row r="1310" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1310" s="21" t="s">
+      <c r="A1310" s="1" t="s">
         <v>936</v>
       </c>
       <c r="C1310" s="11"/>
       <c r="D1310" s="12"/>
-      <c r="E1310" s="14"/>
-      <c r="F1310" s="15"/>
+      <c r="E1310" s="12"/>
+      <c r="F1310" s="12"/>
     </row>
     <row r="1311" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1311" s="18" t="s">
+      <c r="A1311" s="1" t="s">
         <v>937</v>
       </c>
       <c r="C1311" s="11"/>
       <c r="D1311" s="12"/>
-      <c r="E1311" s="16"/>
+      <c r="E1311" s="12"/>
       <c r="F1311" s="12"/>
     </row>
     <row r="1312" spans="1:6" ht="18" x14ac:dyDescent="0.25">
@@ -12406,7 +12339,7 @@
       <c r="F1312" s="12"/>
     </row>
     <row r="1313" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1313" s="18" t="s">
+      <c r="A1313" s="1" t="s">
         <v>938</v>
       </c>
       <c r="C1313" s="11"/>
@@ -12415,7 +12348,7 @@
       <c r="F1313" s="12"/>
     </row>
     <row r="1314" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1314" s="18" t="s">
+      <c r="A1314" s="1" t="s">
         <v>939</v>
       </c>
       <c r="C1314" s="11"/>
@@ -12424,7 +12357,7 @@
       <c r="F1314" s="12"/>
     </row>
     <row r="1315" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1315" s="18" t="s">
+      <c r="A1315" s="1" t="s">
         <v>940</v>
       </c>
       <c r="C1315" s="11"/>
@@ -12433,7 +12366,7 @@
       <c r="F1315" s="12"/>
     </row>
     <row r="1316" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1316" s="18" t="s">
+      <c r="A1316" s="1" t="s">
         <v>941</v>
       </c>
       <c r="C1316" s="11"/>
@@ -12442,7 +12375,7 @@
       <c r="F1316" s="12"/>
     </row>
     <row r="1317" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1317" s="18" t="s">
+      <c r="A1317" s="1" t="s">
         <v>942</v>
       </c>
       <c r="C1317" s="11"/>
@@ -12451,7 +12384,7 @@
       <c r="F1317" s="12"/>
     </row>
     <row r="1318" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1318" s="18" t="s">
+      <c r="A1318" s="1" t="s">
         <v>943</v>
       </c>
       <c r="C1318" s="11"/>
@@ -12460,7 +12393,7 @@
       <c r="F1318" s="12"/>
     </row>
     <row r="1319" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1319" s="18" t="s">
+      <c r="A1319" s="1" t="s">
         <v>944</v>
       </c>
       <c r="C1319" s="11"/>
@@ -12469,7 +12402,7 @@
       <c r="F1319" s="12"/>
     </row>
     <row r="1320" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1320" s="18" t="s">
+      <c r="A1320" s="1" t="s">
         <v>945</v>
       </c>
       <c r="C1320" s="11"/>
@@ -12478,7 +12411,7 @@
       <c r="F1320" s="12"/>
     </row>
     <row r="1321" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1321" s="18" t="s">
+      <c r="A1321" s="1" t="s">
         <v>946</v>
       </c>
       <c r="C1321" s="11"/>
@@ -12487,7 +12420,7 @@
       <c r="F1321" s="12"/>
     </row>
     <row r="1322" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1322" s="18" t="s">
+      <c r="A1322" s="1" t="s">
         <v>947</v>
       </c>
       <c r="C1322" s="11"/>
@@ -12496,7 +12429,7 @@
       <c r="F1322" s="12"/>
     </row>
     <row r="1323" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1323" s="18" t="s">
+      <c r="A1323" s="1" t="s">
         <v>948</v>
       </c>
       <c r="C1323" s="11"/>
@@ -12523,7 +12456,7 @@
       <c r="F1325" s="12"/>
     </row>
     <row r="1326" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1326" s="18" t="s">
+      <c r="A1326" s="1" t="s">
         <v>949</v>
       </c>
       <c r="C1326" s="11"/>
@@ -12532,7 +12465,7 @@
       <c r="F1326" s="12"/>
     </row>
     <row r="1327" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1327" s="18" t="s">
+      <c r="A1327" s="1" t="s">
         <v>950</v>
       </c>
       <c r="C1327" s="11"/>
@@ -12541,7 +12474,7 @@
       <c r="F1327" s="12"/>
     </row>
     <row r="1328" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1328" s="18" t="s">
+      <c r="A1328" s="1" t="s">
         <v>951</v>
       </c>
       <c r="C1328" s="11"/>
@@ -12550,7 +12483,7 @@
       <c r="F1328" s="12"/>
     </row>
     <row r="1329" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1329" s="18" t="s">
+      <c r="A1329" s="1" t="s">
         <v>952</v>
       </c>
       <c r="C1329" s="11"/>
@@ -12559,7 +12492,7 @@
       <c r="F1329" s="12"/>
     </row>
     <row r="1330" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1330" s="18" t="s">
+      <c r="A1330" s="1" t="s">
         <v>953</v>
       </c>
       <c r="C1330" s="11"/>
@@ -12586,7 +12519,7 @@
       <c r="F1332" s="12"/>
     </row>
     <row r="1333" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1333" s="18" t="s">
+      <c r="A1333" s="1" t="s">
         <v>954</v>
       </c>
       <c r="C1333" s="11"/>
@@ -12613,7 +12546,7 @@
       <c r="F1335" s="12"/>
     </row>
     <row r="1336" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1336" s="20" t="s">
+      <c r="A1336" s="1" t="s">
         <v>955</v>
       </c>
       <c r="C1336" s="11"/>
@@ -12622,25 +12555,25 @@
       <c r="F1336" s="12"/>
     </row>
     <row r="1337" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1337" s="13" t="s">
+      <c r="A1337" s="10" t="s">
         <v>1352</v>
       </c>
       <c r="C1337" s="11"/>
       <c r="D1337" s="12"/>
-      <c r="E1337" s="14"/>
-      <c r="F1337" s="15"/>
+      <c r="E1337" s="12"/>
+      <c r="F1337" s="12"/>
     </row>
     <row r="1338" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1338" s="19" t="s">
+      <c r="A1338" s="3" t="s">
         <v>1049</v>
       </c>
       <c r="C1338" s="11"/>
       <c r="D1338" s="12"/>
-      <c r="E1338" s="16"/>
+      <c r="E1338" s="12"/>
       <c r="F1338" s="12"/>
     </row>
     <row r="1339" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1339" s="18" t="s">
+      <c r="A1339" s="1" t="s">
         <v>956</v>
       </c>
       <c r="C1339" s="11"/>
@@ -12649,7 +12582,7 @@
       <c r="F1339" s="12"/>
     </row>
     <row r="1340" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1340" s="18" t="s">
+      <c r="A1340" s="1" t="s">
         <v>957</v>
       </c>
       <c r="C1340" s="11"/>
@@ -12658,7 +12591,7 @@
       <c r="F1340" s="12"/>
     </row>
     <row r="1341" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1341" s="18" t="s">
+      <c r="A1341" s="1" t="s">
         <v>958</v>
       </c>
       <c r="C1341" s="11"/>
@@ -12667,7 +12600,7 @@
       <c r="F1341" s="12"/>
     </row>
     <row r="1342" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1342" s="18" t="s">
+      <c r="A1342" s="1" t="s">
         <v>959</v>
       </c>
       <c r="C1342" s="11"/>
@@ -12676,7 +12609,7 @@
       <c r="F1342" s="12"/>
     </row>
     <row r="1343" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1343" s="18" t="s">
+      <c r="A1343" s="1" t="s">
         <v>960</v>
       </c>
       <c r="C1343" s="11"/>
@@ -12685,7 +12618,7 @@
       <c r="F1343" s="12"/>
     </row>
     <row r="1344" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1344" s="18" t="s">
+      <c r="A1344" s="1" t="s">
         <v>961</v>
       </c>
       <c r="C1344" s="11"/>
@@ -12694,7 +12627,7 @@
       <c r="F1344" s="12"/>
     </row>
     <row r="1345" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1345" s="18" t="s">
+      <c r="A1345" s="1" t="s">
         <v>962</v>
       </c>
       <c r="C1345" s="11"/>
@@ -12703,7 +12636,7 @@
       <c r="F1345" s="12"/>
     </row>
     <row r="1346" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1346" s="18" t="s">
+      <c r="A1346" s="1" t="s">
         <v>963</v>
       </c>
       <c r="C1346" s="11"/>
@@ -12721,7 +12654,7 @@
       <c r="F1347" s="12"/>
     </row>
     <row r="1348" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1348" s="18" t="s">
+      <c r="A1348" s="1" t="s">
         <v>964</v>
       </c>
       <c r="C1348" s="11"/>
@@ -12730,7 +12663,7 @@
       <c r="F1348" s="12"/>
     </row>
     <row r="1349" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1349" s="18" t="s">
+      <c r="A1349" s="1" t="s">
         <v>965</v>
       </c>
       <c r="C1349" s="11"/>
@@ -12748,7 +12681,7 @@
       <c r="F1350" s="12"/>
     </row>
     <row r="1351" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1351" s="18" t="s">
+      <c r="A1351" s="1" t="s">
         <v>966</v>
       </c>
       <c r="C1351" s="11"/>
@@ -12757,7 +12690,7 @@
       <c r="F1351" s="12"/>
     </row>
     <row r="1352" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1352" s="18" t="s">
+      <c r="A1352" s="1" t="s">
         <v>967</v>
       </c>
       <c r="C1352" s="11"/>
@@ -12766,7 +12699,7 @@
       <c r="F1352" s="12"/>
     </row>
     <row r="1353" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1353" s="18" t="s">
+      <c r="A1353" s="1" t="s">
         <v>968</v>
       </c>
       <c r="C1353" s="11"/>
@@ -12784,7 +12717,7 @@
       <c r="F1354" s="12"/>
     </row>
     <row r="1355" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1355" s="18" t="s">
+      <c r="A1355" s="1" t="s">
         <v>969</v>
       </c>
       <c r="C1355" s="11"/>
@@ -12793,7 +12726,7 @@
       <c r="F1355" s="12"/>
     </row>
     <row r="1356" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1356" s="18" t="s">
+      <c r="A1356" s="1" t="s">
         <v>970</v>
       </c>
       <c r="C1356" s="11"/>
@@ -12802,7 +12735,7 @@
       <c r="F1356" s="12"/>
     </row>
     <row r="1357" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1357" s="20" t="s">
+      <c r="A1357" s="1" t="s">
         <v>971</v>
       </c>
       <c r="C1357" s="11"/>
@@ -12811,21 +12744,21 @@
       <c r="F1357" s="12"/>
     </row>
     <row r="1358" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1358" s="21" t="s">
+      <c r="A1358" s="1" t="s">
         <v>972</v>
       </c>
       <c r="C1358" s="11"/>
       <c r="D1358" s="12"/>
-      <c r="E1358" s="14"/>
-      <c r="F1358" s="15"/>
+      <c r="E1358" s="12"/>
+      <c r="F1358" s="12"/>
     </row>
     <row r="1359" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1359" s="18" t="s">
+      <c r="A1359" s="1" t="s">
         <v>973</v>
       </c>
       <c r="C1359" s="11"/>
       <c r="D1359" s="12"/>
-      <c r="E1359" s="16"/>
+      <c r="E1359" s="12"/>
       <c r="F1359" s="12"/>
     </row>
     <row r="1360" spans="1:6" ht="18" x14ac:dyDescent="0.25">
@@ -12838,7 +12771,7 @@
       <c r="F1360" s="12"/>
     </row>
     <row r="1361" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1361" s="18" t="s">
+      <c r="A1361" s="1" t="s">
         <v>974</v>
       </c>
       <c r="C1361" s="11"/>
@@ -12847,7 +12780,7 @@
       <c r="F1361" s="12"/>
     </row>
     <row r="1362" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1362" s="18" t="s">
+      <c r="A1362" s="1" t="s">
         <v>975</v>
       </c>
       <c r="C1362" s="11"/>
@@ -12856,7 +12789,7 @@
       <c r="F1362" s="12"/>
     </row>
     <row r="1363" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1363" s="18" t="s">
+      <c r="A1363" s="1" t="s">
         <v>976</v>
       </c>
       <c r="C1363" s="11"/>
@@ -12865,7 +12798,7 @@
       <c r="F1363" s="12"/>
     </row>
     <row r="1364" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1364" s="18" t="s">
+      <c r="A1364" s="1" t="s">
         <v>977</v>
       </c>
       <c r="C1364" s="11"/>
@@ -12874,7 +12807,7 @@
       <c r="F1364" s="12"/>
     </row>
     <row r="1365" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1365" s="19" t="s">
+      <c r="A1365" s="3" t="s">
         <v>1065</v>
       </c>
       <c r="C1365" s="11"/>
@@ -12883,7 +12816,7 @@
       <c r="F1365" s="12"/>
     </row>
     <row r="1366" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1366" s="18" t="s">
+      <c r="A1366" s="1" t="s">
         <v>978</v>
       </c>
       <c r="C1366" s="11"/>
@@ -12892,7 +12825,7 @@
       <c r="F1366" s="12"/>
     </row>
     <row r="1367" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1367" s="18" t="s">
+      <c r="A1367" s="1" t="s">
         <v>979</v>
       </c>
       <c r="C1367" s="11"/>
@@ -12901,7 +12834,7 @@
       <c r="F1367" s="12"/>
     </row>
     <row r="1368" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1368" s="18" t="s">
+      <c r="A1368" s="1" t="s">
         <v>980</v>
       </c>
       <c r="C1368" s="11"/>
@@ -12910,7 +12843,7 @@
       <c r="F1368" s="12"/>
     </row>
     <row r="1369" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1369" s="18" t="s">
+      <c r="A1369" s="1" t="s">
         <v>981</v>
       </c>
       <c r="C1369" s="11"/>
@@ -12919,7 +12852,7 @@
       <c r="F1369" s="12"/>
     </row>
     <row r="1370" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1370" s="18" t="s">
+      <c r="A1370" s="1" t="s">
         <v>982</v>
       </c>
       <c r="C1370" s="11"/>
@@ -12928,7 +12861,7 @@
       <c r="F1370" s="12"/>
     </row>
     <row r="1371" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1371" s="18" t="s">
+      <c r="A1371" s="1" t="s">
         <v>983</v>
       </c>
       <c r="C1371" s="11"/>
@@ -12937,7 +12870,7 @@
       <c r="F1371" s="12"/>
     </row>
     <row r="1372" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1372" s="18" t="s">
+      <c r="A1372" s="1" t="s">
         <v>984</v>
       </c>
       <c r="C1372" s="11"/>
@@ -12946,7 +12879,7 @@
       <c r="F1372" s="12"/>
     </row>
     <row r="1373" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1373" s="18" t="s">
+      <c r="A1373" s="1" t="s">
         <v>985</v>
       </c>
       <c r="C1373" s="11"/>
@@ -12955,7 +12888,7 @@
       <c r="F1373" s="12"/>
     </row>
     <row r="1374" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1374" s="18" t="s">
+      <c r="A1374" s="1" t="s">
         <v>986</v>
       </c>
       <c r="C1374" s="11"/>
@@ -12964,7 +12897,7 @@
       <c r="F1374" s="12"/>
     </row>
     <row r="1375" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1375" s="18" t="s">
+      <c r="A1375" s="1" t="s">
         <v>987</v>
       </c>
       <c r="C1375" s="11"/>
@@ -12973,7 +12906,7 @@
       <c r="F1375" s="12"/>
     </row>
     <row r="1376" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1376" s="18" t="s">
+      <c r="A1376" s="1" t="s">
         <v>988</v>
       </c>
       <c r="C1376" s="11"/>
@@ -12991,7 +12924,7 @@
       <c r="F1377" s="12"/>
     </row>
     <row r="1378" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1378" s="18" t="s">
+      <c r="A1378" s="1" t="s">
         <v>989</v>
       </c>
       <c r="C1378" s="11"/>
@@ -13018,7 +12951,7 @@
       <c r="F1380" s="12"/>
     </row>
     <row r="1381" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1381" s="18" t="s">
+      <c r="A1381" s="1" t="s">
         <v>990</v>
       </c>
       <c r="C1381" s="11"/>
@@ -13027,7 +12960,7 @@
       <c r="F1381" s="12"/>
     </row>
     <row r="1382" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1382" s="18" t="s">
+      <c r="A1382" s="1" t="s">
         <v>991</v>
       </c>
       <c r="C1382" s="11"/>
@@ -13036,7 +12969,7 @@
       <c r="F1382" s="12"/>
     </row>
     <row r="1383" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1383" s="18" t="s">
+      <c r="A1383" s="1" t="s">
         <v>992</v>
       </c>
       <c r="C1383" s="11"/>
@@ -13063,7 +12996,7 @@
       <c r="F1385" s="12"/>
     </row>
     <row r="1386" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1386" s="18" t="s">
+      <c r="A1386" s="1" t="s">
         <v>993</v>
       </c>
       <c r="C1386" s="11"/>
@@ -13072,7 +13005,7 @@
       <c r="F1386" s="12"/>
     </row>
     <row r="1387" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1387" s="24" t="s">
+      <c r="A1387" s="6" t="s">
         <v>1071</v>
       </c>
       <c r="C1387" s="11"/>
@@ -13081,7 +13014,7 @@
       <c r="F1387" s="12"/>
     </row>
     <row r="1388" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1388" s="18" t="s">
+      <c r="A1388" s="1" t="s">
         <v>994</v>
       </c>
       <c r="C1388" s="11"/>
@@ -13099,7 +13032,7 @@
       <c r="F1389" s="12"/>
     </row>
     <row r="1390" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1390" s="18" t="s">
+      <c r="A1390" s="1" t="s">
         <v>995</v>
       </c>
       <c r="C1390" s="11"/>
@@ -13108,7 +13041,7 @@
       <c r="F1390" s="12"/>
     </row>
     <row r="1391" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1391" s="18" t="s">
+      <c r="A1391" s="1" t="s">
         <v>996</v>
       </c>
       <c r="C1391" s="11"/>
@@ -13117,7 +13050,7 @@
       <c r="F1391" s="12"/>
     </row>
     <row r="1392" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1392" s="18" t="s">
+      <c r="A1392" s="1" t="s">
         <v>997</v>
       </c>
       <c r="C1392" s="11"/>
@@ -13162,7 +13095,7 @@
       <c r="F1396" s="12"/>
     </row>
     <row r="1397" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1397" s="18" t="s">
+      <c r="A1397" s="1" t="s">
         <v>998</v>
       </c>
       <c r="C1397" s="11"/>
@@ -13171,7 +13104,7 @@
       <c r="F1397" s="12"/>
     </row>
     <row r="1398" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1398" s="18" t="s">
+      <c r="A1398" s="1" t="s">
         <v>999</v>
       </c>
       <c r="C1398" s="11"/>
@@ -13180,7 +13113,7 @@
       <c r="F1398" s="12"/>
     </row>
     <row r="1399" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1399" s="18" t="s">
+      <c r="A1399" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="C1399" s="11"/>
@@ -13189,7 +13122,7 @@
       <c r="F1399" s="12"/>
     </row>
     <row r="1400" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1400" s="22" t="s">
+      <c r="A1400" s="10" t="s">
         <v>1335</v>
       </c>
       <c r="C1400" s="11"/>
@@ -13198,13 +13131,13 @@
       <c r="F1400" s="12"/>
     </row>
     <row r="1401" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1401" s="21" t="s">
+      <c r="A1401" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="C1401" s="11"/>
       <c r="D1401" s="12"/>
-      <c r="E1401" s="14"/>
-      <c r="F1401" s="15"/>
+      <c r="E1401" s="12"/>
+      <c r="F1401" s="12"/>
     </row>
     <row r="1402" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1402" s="10" t="s">
@@ -13212,11 +13145,11 @@
       </c>
       <c r="C1402" s="11"/>
       <c r="D1402" s="12"/>
-      <c r="E1402" s="16"/>
+      <c r="E1402" s="12"/>
       <c r="F1402" s="12"/>
     </row>
     <row r="1403" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1403" s="18" t="s">
+      <c r="A1403" s="1" t="s">
         <v>1002</v>
       </c>
       <c r="C1403" s="11"/>
@@ -13225,7 +13158,7 @@
       <c r="F1403" s="12"/>
     </row>
     <row r="1404" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1404" s="18" t="s">
+      <c r="A1404" s="1" t="s">
         <v>1003</v>
       </c>
       <c r="C1404" s="11"/>
@@ -13234,7 +13167,7 @@
       <c r="F1404" s="12"/>
     </row>
     <row r="1405" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1405" s="18" t="s">
+      <c r="A1405" s="1" t="s">
         <v>1004</v>
       </c>
       <c r="C1405" s="11"/>
@@ -13243,7 +13176,7 @@
       <c r="F1405" s="12"/>
     </row>
     <row r="1406" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1406" s="18" t="s">
+      <c r="A1406" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="C1406" s="11"/>
@@ -13252,7 +13185,7 @@
       <c r="F1406" s="12"/>
     </row>
     <row r="1407" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1407" s="20" t="s">
+      <c r="A1407" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="C1407" s="11"/>
@@ -13261,25 +13194,25 @@
       <c r="F1407" s="12"/>
     </row>
     <row r="1408" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1408" s="21" t="s">
+      <c r="A1408" s="1" t="s">
         <v>1007</v>
       </c>
       <c r="C1408" s="11"/>
       <c r="D1408" s="12"/>
-      <c r="E1408" s="14"/>
-      <c r="F1408" s="15"/>
+      <c r="E1408" s="12"/>
+      <c r="F1408" s="12"/>
     </row>
     <row r="1409" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1409" s="18" t="s">
+      <c r="A1409" s="1" t="s">
         <v>1008</v>
       </c>
       <c r="C1409" s="11"/>
       <c r="D1409" s="12"/>
-      <c r="E1409" s="16"/>
+      <c r="E1409" s="12"/>
       <c r="F1409" s="12"/>
     </row>
     <row r="1410" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1410" s="18" t="s">
+      <c r="A1410" s="1" t="s">
         <v>1009</v>
       </c>
       <c r="C1410" s="11"/>
@@ -13288,7 +13221,7 @@
       <c r="F1410" s="12"/>
     </row>
     <row r="1411" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1411" s="18" t="s">
+      <c r="A1411" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="C1411" s="11"/>
@@ -13297,7 +13230,7 @@
       <c r="F1411" s="12"/>
     </row>
     <row r="1412" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1412" s="19" t="s">
+      <c r="A1412" s="3" t="s">
         <v>1096</v>
       </c>
       <c r="C1412" s="11"/>
@@ -13306,7 +13239,7 @@
       <c r="F1412" s="12"/>
     </row>
     <row r="1413" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1413" s="19" t="s">
+      <c r="A1413" s="3" t="s">
         <v>1072</v>
       </c>
       <c r="C1413" s="11"/>
@@ -13369,7 +13302,7 @@
       <c r="F1419" s="12"/>
     </row>
     <row r="1420" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1420" s="18" t="s">
+      <c r="A1420" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="C1420" s="11"/>
@@ -13378,7 +13311,7 @@
       <c r="F1420" s="12"/>
     </row>
     <row r="1421" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1421" s="18" t="s">
+      <c r="A1421" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="C1421" s="11"/>
@@ -13387,7 +13320,7 @@
       <c r="F1421" s="12"/>
     </row>
     <row r="1422" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1422" s="18" t="s">
+      <c r="A1422" s="1" t="s">
         <v>1013</v>
       </c>
       <c r="C1422" s="11"/>
@@ -13396,7 +13329,7 @@
       <c r="F1422" s="12"/>
     </row>
     <row r="1423" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1423" s="18" t="s">
+      <c r="A1423" s="1" t="s">
         <v>1014</v>
       </c>
       <c r="C1423" s="11"/>
@@ -13405,7 +13338,7 @@
       <c r="F1423" s="12"/>
     </row>
     <row r="1424" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1424" s="24" t="s">
+      <c r="A1424" s="6" t="s">
         <v>1050</v>
       </c>
       <c r="C1424" s="11"/>
@@ -13423,7 +13356,7 @@
       <c r="F1425" s="12"/>
     </row>
     <row r="1426" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1426" s="18" t="s">
+      <c r="A1426" s="1" t="s">
         <v>1015</v>
       </c>
       <c r="C1426" s="11"/>
@@ -13432,7 +13365,7 @@
       <c r="F1426" s="12"/>
     </row>
     <row r="1427" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1427" s="18" t="s">
+      <c r="A1427" s="1" t="s">
         <v>1016</v>
       </c>
       <c r="C1427" s="11"/>
@@ -13441,7 +13374,7 @@
       <c r="F1427" s="12"/>
     </row>
     <row r="1428" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1428" s="18" t="s">
+      <c r="A1428" s="1" t="s">
         <v>1017</v>
       </c>
       <c r="C1428" s="11"/>
@@ -13450,7 +13383,7 @@
       <c r="F1428" s="12"/>
     </row>
     <row r="1429" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1429" s="18" t="s">
+      <c r="A1429" s="1" t="s">
         <v>1018</v>
       </c>
       <c r="C1429" s="11"/>
@@ -13459,7 +13392,7 @@
       <c r="F1429" s="12"/>
     </row>
     <row r="1430" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1430" s="18" t="s">
+      <c r="A1430" s="1" t="s">
         <v>1019</v>
       </c>
       <c r="C1430" s="11"/>
@@ -13468,7 +13401,7 @@
       <c r="F1430" s="12"/>
     </row>
     <row r="1431" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1431" s="18" t="s">
+      <c r="A1431" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="C1431" s="11"/>
@@ -13477,7 +13410,7 @@
       <c r="F1431" s="12"/>
     </row>
     <row r="1432" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1432" s="18" t="s">
+      <c r="A1432" s="1" t="s">
         <v>1021</v>
       </c>
       <c r="C1432" s="11"/>
@@ -13486,7 +13419,7 @@
       <c r="F1432" s="12"/>
     </row>
     <row r="1433" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1433" s="18" t="s">
+      <c r="A1433" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="C1433" s="11"/>
@@ -13495,7 +13428,7 @@
       <c r="F1433" s="12"/>
     </row>
     <row r="1434" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1434" s="18" t="s">
+      <c r="A1434" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="C1434" s="11"/>
@@ -13504,7 +13437,7 @@
       <c r="F1434" s="12"/>
     </row>
     <row r="1435" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1435" s="18" t="s">
+      <c r="A1435" s="1" t="s">
         <v>1024</v>
       </c>
       <c r="C1435" s="11"/>
@@ -13513,7 +13446,7 @@
       <c r="F1435" s="12"/>
     </row>
     <row r="1436" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1436" s="18" t="s">
+      <c r="A1436" s="1" t="s">
         <v>1025</v>
       </c>
       <c r="C1436" s="11"/>
@@ -13522,7 +13455,7 @@
       <c r="F1436" s="12"/>
     </row>
     <row r="1437" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1437" s="18" t="s">
+      <c r="A1437" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="C1437" s="11"/>
@@ -13531,7 +13464,7 @@
       <c r="F1437" s="12"/>
     </row>
     <row r="1438" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1438" s="18" t="s">
+      <c r="A1438" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="C1438" s="11"/>
@@ -13540,7 +13473,7 @@
       <c r="F1438" s="12"/>
     </row>
     <row r="1439" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1439" s="18" t="s">
+      <c r="A1439" s="1" t="s">
         <v>1028</v>
       </c>
       <c r="C1439" s="11"/>
@@ -13549,7 +13482,7 @@
       <c r="F1439" s="12"/>
     </row>
     <row r="1440" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1440" s="19" t="s">
+      <c r="A1440" s="3" t="s">
         <v>1083</v>
       </c>
       <c r="C1440" s="11"/>
@@ -13558,7 +13491,7 @@
       <c r="F1440" s="12"/>
     </row>
     <row r="1441" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1441" s="18" t="s">
+      <c r="A1441" s="1" t="s">
         <v>1029</v>
       </c>
       <c r="C1441" s="11"/>
@@ -13567,7 +13500,7 @@
       <c r="F1441" s="12"/>
     </row>
     <row r="1442" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1442" s="18" t="s">
+      <c r="A1442" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="C1442" s="11"/>
@@ -13576,7 +13509,7 @@
       <c r="F1442" s="12"/>
     </row>
     <row r="1443" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1443" s="18" t="s">
+      <c r="A1443" s="1" t="s">
         <v>1031</v>
       </c>
       <c r="C1443" s="11"/>
@@ -13585,7 +13518,7 @@
       <c r="F1443" s="12"/>
     </row>
     <row r="1444" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1444" s="18" t="s">
+      <c r="A1444" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="C1444" s="11"/>
@@ -13594,7 +13527,7 @@
       <c r="F1444" s="12"/>
     </row>
     <row r="1445" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1445" s="18" t="s">
+      <c r="A1445" s="1" t="s">
         <v>1033</v>
       </c>
       <c r="C1445" s="11"/>
@@ -13603,7 +13536,7 @@
       <c r="F1445" s="12"/>
     </row>
     <row r="1446" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1446" s="18" t="s">
+      <c r="A1446" s="1" t="s">
         <v>1034</v>
       </c>
       <c r="C1446" s="11"/>
@@ -13612,7 +13545,7 @@
       <c r="F1446" s="12"/>
     </row>
     <row r="1447" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1447" s="26" t="s">
+      <c r="A1447" s="13" t="s">
         <v>1440</v>
       </c>
       <c r="C1447" s="11"/>
@@ -13621,9 +13554,3317 @@
       <c r="F1447" s="12"/>
     </row>
     <row r="1448" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1448" s="27" t="s">
+      <c r="A1448" s="14" t="s">
         <v>1441</v>
       </c>
+    </row>
+    <row r="1449" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1449" s="14" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1450" s="3"/>
+    </row>
+    <row r="1451" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1451" s="3"/>
+    </row>
+    <row r="1452" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1452" s="3"/>
+    </row>
+    <row r="1453" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1453" s="3"/>
+    </row>
+    <row r="1454" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1454" s="3"/>
+    </row>
+    <row r="1455" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1455" s="3"/>
+    </row>
+    <row r="1456" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1456" s="3"/>
+    </row>
+    <row r="1457" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1457" s="3"/>
+    </row>
+    <row r="1458" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1458" s="3"/>
+    </row>
+    <row r="1459" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1459" s="3"/>
+    </row>
+    <row r="1460" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1460" s="3"/>
+    </row>
+    <row r="1461" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1461" s="3"/>
+    </row>
+    <row r="1462" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1462" s="3"/>
+    </row>
+    <row r="1463" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1463" s="3"/>
+    </row>
+    <row r="1464" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1464" s="3"/>
+    </row>
+    <row r="1465" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1465" s="3"/>
+    </row>
+    <row r="1466" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1466" s="3"/>
+    </row>
+    <row r="1467" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1467" s="3"/>
+    </row>
+    <row r="1468" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1468" s="3"/>
+    </row>
+    <row r="1469" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1469" s="3"/>
+    </row>
+    <row r="1470" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1470" s="3"/>
+    </row>
+    <row r="1471" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1471" s="3"/>
+    </row>
+    <row r="1472" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1472" s="3"/>
+    </row>
+    <row r="1473" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1473" s="3"/>
+    </row>
+    <row r="1474" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1474" s="3"/>
+    </row>
+    <row r="1475" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1475" s="3"/>
+    </row>
+    <row r="1476" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1476" s="3"/>
+    </row>
+    <row r="1477" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1477" s="3"/>
+    </row>
+    <row r="1478" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1478" s="3"/>
+    </row>
+    <row r="1479" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1479" s="3"/>
+    </row>
+    <row r="1480" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1480" s="3"/>
+    </row>
+    <row r="1481" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1481" s="3"/>
+    </row>
+    <row r="1482" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1482" s="3"/>
+    </row>
+    <row r="1483" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1483" s="3"/>
+    </row>
+    <row r="1484" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1484" s="3"/>
+    </row>
+    <row r="1485" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1485" s="3"/>
+    </row>
+    <row r="1486" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1486" s="3"/>
+    </row>
+    <row r="1487" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1487" s="3"/>
+    </row>
+    <row r="1488" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1488" s="3"/>
+    </row>
+    <row r="1489" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1489" s="3"/>
+    </row>
+    <row r="1490" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1490" s="3"/>
+    </row>
+    <row r="1491" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1491" s="3"/>
+    </row>
+    <row r="1492" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1492" s="3"/>
+    </row>
+    <row r="1493" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1493" s="3"/>
+    </row>
+    <row r="1494" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1494" s="3"/>
+    </row>
+    <row r="1495" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1495" s="3"/>
+    </row>
+    <row r="1496" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1496" s="3"/>
+    </row>
+    <row r="1497" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1497" s="3"/>
+    </row>
+    <row r="1498" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1498" s="3"/>
+    </row>
+    <row r="1499" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1499" s="3"/>
+    </row>
+    <row r="1500" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1500" s="3"/>
+    </row>
+    <row r="1501" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1501" s="3"/>
+    </row>
+    <row r="1502" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1502" s="3"/>
+    </row>
+    <row r="1503" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1503" s="3"/>
+    </row>
+    <row r="1504" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1504" s="3"/>
+    </row>
+    <row r="1505" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1505" s="3"/>
+    </row>
+    <row r="1506" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1506" s="3"/>
+    </row>
+    <row r="1507" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1507" s="3"/>
+    </row>
+    <row r="1508" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1508" s="3"/>
+    </row>
+    <row r="1509" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1509" s="3"/>
+    </row>
+    <row r="1510" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1510" s="3"/>
+    </row>
+    <row r="1511" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1511" s="3"/>
+    </row>
+    <row r="1512" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1512" s="3"/>
+    </row>
+    <row r="1513" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1513" s="3"/>
+    </row>
+    <row r="1514" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1514" s="3"/>
+    </row>
+    <row r="1515" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1515" s="3"/>
+    </row>
+    <row r="1516" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1516" s="3"/>
+    </row>
+    <row r="1517" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1517" s="3"/>
+    </row>
+    <row r="1518" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1518" s="3"/>
+    </row>
+    <row r="1519" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1519" s="3"/>
+    </row>
+    <row r="1520" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1520" s="3"/>
+    </row>
+    <row r="1521" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1521" s="3"/>
+    </row>
+    <row r="1522" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1522" s="3"/>
+    </row>
+    <row r="1523" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1523" s="3"/>
+    </row>
+    <row r="1524" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1524" s="3"/>
+    </row>
+    <row r="1525" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1525" s="3"/>
+    </row>
+    <row r="1526" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1526" s="3"/>
+    </row>
+    <row r="1527" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1527" s="3"/>
+    </row>
+    <row r="1528" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1528" s="3"/>
+    </row>
+    <row r="1529" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1529" s="3"/>
+    </row>
+    <row r="1530" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1530" s="3"/>
+    </row>
+    <row r="1531" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1531" s="3"/>
+    </row>
+    <row r="1532" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1532" s="3"/>
+    </row>
+    <row r="1533" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1533" s="3"/>
+    </row>
+    <row r="1534" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1534" s="3"/>
+    </row>
+    <row r="1535" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1535" s="3"/>
+    </row>
+    <row r="1536" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1536" s="3"/>
+    </row>
+    <row r="1537" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1537" s="3"/>
+    </row>
+    <row r="1538" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1538" s="3"/>
+    </row>
+    <row r="1539" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1539" s="3"/>
+    </row>
+    <row r="1540" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1540" s="3"/>
+    </row>
+    <row r="1541" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1541" s="3"/>
+    </row>
+    <row r="1542" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1542" s="3"/>
+    </row>
+    <row r="1543" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1543" s="3"/>
+    </row>
+    <row r="1544" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1544" s="3"/>
+    </row>
+    <row r="1545" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1545" s="3"/>
+    </row>
+    <row r="1546" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1546" s="3"/>
+    </row>
+    <row r="1547" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1547" s="3"/>
+    </row>
+    <row r="1548" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1548" s="3"/>
+    </row>
+    <row r="1549" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1549" s="3"/>
+    </row>
+    <row r="1550" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1550" s="3"/>
+    </row>
+    <row r="1551" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1551" s="3"/>
+    </row>
+    <row r="1552" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1552" s="3"/>
+    </row>
+    <row r="1553" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1553" s="3"/>
+    </row>
+    <row r="1554" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1554" s="3"/>
+    </row>
+    <row r="1555" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1555" s="3"/>
+    </row>
+    <row r="1556" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1556" s="3"/>
+    </row>
+    <row r="1557" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1557" s="3"/>
+    </row>
+    <row r="1558" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1558" s="3"/>
+    </row>
+    <row r="1559" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1559" s="3"/>
+    </row>
+    <row r="1560" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1560" s="3"/>
+    </row>
+    <row r="1561" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1561" s="3"/>
+    </row>
+    <row r="1562" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1562" s="3"/>
+    </row>
+    <row r="1563" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1563" s="3"/>
+    </row>
+    <row r="1564" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1564" s="3"/>
+    </row>
+    <row r="1565" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1565" s="3"/>
+    </row>
+    <row r="1566" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1566" s="3"/>
+    </row>
+    <row r="1567" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1567" s="3"/>
+    </row>
+    <row r="1568" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1568" s="3"/>
+    </row>
+    <row r="1569" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1569" s="3"/>
+    </row>
+    <row r="1570" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1570" s="3"/>
+    </row>
+    <row r="1571" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1571" s="3"/>
+    </row>
+    <row r="1572" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1572" s="3"/>
+    </row>
+    <row r="1573" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1573" s="3"/>
+    </row>
+    <row r="1574" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1574" s="3"/>
+    </row>
+    <row r="1575" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1575" s="3"/>
+    </row>
+    <row r="1576" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1576" s="3"/>
+    </row>
+    <row r="1577" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1577" s="3"/>
+    </row>
+    <row r="1578" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1578" s="3"/>
+    </row>
+    <row r="1579" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1579" s="3"/>
+    </row>
+    <row r="1580" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1580" s="3"/>
+    </row>
+    <row r="1581" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1581" s="3"/>
+    </row>
+    <row r="1582" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1582" s="3"/>
+    </row>
+    <row r="1583" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1583" s="3"/>
+    </row>
+    <row r="1584" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1584" s="3"/>
+    </row>
+    <row r="1585" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1585" s="3"/>
+    </row>
+    <row r="1586" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1586" s="3"/>
+    </row>
+    <row r="1587" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1587" s="3"/>
+    </row>
+    <row r="1588" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1588" s="3"/>
+    </row>
+    <row r="1589" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1589" s="3"/>
+    </row>
+    <row r="1590" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1590" s="3"/>
+    </row>
+    <row r="1591" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1591" s="3"/>
+    </row>
+    <row r="1592" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1592" s="3"/>
+    </row>
+    <row r="1593" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1593" s="3"/>
+    </row>
+    <row r="1594" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1594" s="3"/>
+    </row>
+    <row r="1595" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1595" s="3"/>
+    </row>
+    <row r="1596" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1596" s="3"/>
+    </row>
+    <row r="1597" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1597" s="3"/>
+    </row>
+    <row r="1598" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1598" s="3"/>
+    </row>
+    <row r="1599" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1599" s="3"/>
+    </row>
+    <row r="1600" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1600" s="3"/>
+    </row>
+    <row r="1601" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1601" s="3"/>
+    </row>
+    <row r="1602" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1602" s="3"/>
+    </row>
+    <row r="1603" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1603" s="3"/>
+    </row>
+    <row r="1604" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1604" s="3"/>
+    </row>
+    <row r="1605" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1605" s="3"/>
+    </row>
+    <row r="1606" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1606" s="3"/>
+    </row>
+    <row r="1607" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1607" s="3"/>
+    </row>
+    <row r="1608" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1608" s="3"/>
+    </row>
+    <row r="1609" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1609" s="3"/>
+    </row>
+    <row r="1610" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1610" s="3"/>
+    </row>
+    <row r="1611" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1611" s="3"/>
+    </row>
+    <row r="1612" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1612" s="3"/>
+    </row>
+    <row r="1613" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1613" s="3"/>
+    </row>
+    <row r="1614" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1614" s="3"/>
+    </row>
+    <row r="1615" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1615" s="3"/>
+    </row>
+    <row r="1616" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1616" s="3"/>
+    </row>
+    <row r="1617" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1617" s="3"/>
+    </row>
+    <row r="1618" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1618" s="3"/>
+    </row>
+    <row r="1619" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1619" s="3"/>
+    </row>
+    <row r="1620" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1620" s="3"/>
+    </row>
+    <row r="1621" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1621" s="3"/>
+    </row>
+    <row r="1622" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1622" s="3"/>
+    </row>
+    <row r="1623" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1623" s="3"/>
+    </row>
+    <row r="1624" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1624" s="3"/>
+    </row>
+    <row r="1625" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1625" s="3"/>
+    </row>
+    <row r="1626" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1626" s="3"/>
+    </row>
+    <row r="1627" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1627" s="3"/>
+    </row>
+    <row r="1628" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1628" s="3"/>
+    </row>
+    <row r="1629" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1629" s="3"/>
+    </row>
+    <row r="1630" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1630" s="3"/>
+    </row>
+    <row r="1631" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1631" s="3"/>
+    </row>
+    <row r="1632" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1632" s="3"/>
+    </row>
+    <row r="1633" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1633" s="3"/>
+    </row>
+    <row r="1634" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1634" s="3"/>
+    </row>
+    <row r="1635" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1635" s="3"/>
+    </row>
+    <row r="1636" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1636" s="3"/>
+    </row>
+    <row r="1637" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1637" s="3"/>
+    </row>
+    <row r="1638" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1638" s="3"/>
+    </row>
+    <row r="1639" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1639" s="3"/>
+    </row>
+    <row r="1640" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1640" s="3"/>
+    </row>
+    <row r="1641" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1641" s="3"/>
+    </row>
+    <row r="1642" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1642" s="3"/>
+    </row>
+    <row r="1643" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1643" s="3"/>
+    </row>
+    <row r="1644" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1644" s="3"/>
+    </row>
+    <row r="1645" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1645" s="3"/>
+    </row>
+    <row r="1646" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1646" s="3"/>
+    </row>
+    <row r="1647" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1647" s="3"/>
+    </row>
+    <row r="1648" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1648" s="3"/>
+    </row>
+    <row r="1649" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1649" s="3"/>
+    </row>
+    <row r="1650" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1650" s="3"/>
+    </row>
+    <row r="1651" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1651" s="3"/>
+    </row>
+    <row r="1652" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1652" s="3"/>
+    </row>
+    <row r="1653" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1653" s="3"/>
+    </row>
+    <row r="1654" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1654" s="3"/>
+    </row>
+    <row r="1655" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1655" s="3"/>
+    </row>
+    <row r="1656" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1656" s="3"/>
+    </row>
+    <row r="1657" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1657" s="3"/>
+    </row>
+    <row r="1658" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1658" s="3"/>
+    </row>
+    <row r="1659" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1659" s="3"/>
+    </row>
+    <row r="1660" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1660" s="3"/>
+    </row>
+    <row r="1661" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1661" s="3"/>
+    </row>
+    <row r="1662" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1662" s="3"/>
+    </row>
+    <row r="1663" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1663" s="3"/>
+    </row>
+    <row r="1664" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1664" s="3"/>
+    </row>
+    <row r="1665" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1665" s="3"/>
+    </row>
+    <row r="1666" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1666" s="3"/>
+    </row>
+    <row r="1667" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1667" s="3"/>
+    </row>
+    <row r="1668" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1668" s="3"/>
+    </row>
+    <row r="1669" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1669" s="3"/>
+    </row>
+    <row r="1670" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1670" s="3"/>
+    </row>
+    <row r="1671" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1671" s="3"/>
+    </row>
+    <row r="1672" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1672" s="3"/>
+    </row>
+    <row r="1673" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1673" s="3"/>
+    </row>
+    <row r="1674" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1674" s="3"/>
+    </row>
+    <row r="1675" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1675" s="3"/>
+    </row>
+    <row r="1676" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1676" s="3"/>
+    </row>
+    <row r="1677" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1677" s="3"/>
+    </row>
+    <row r="1678" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1678" s="3"/>
+    </row>
+    <row r="1679" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1679" s="3"/>
+    </row>
+    <row r="1680" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1680" s="3"/>
+    </row>
+    <row r="1681" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1681" s="3"/>
+    </row>
+    <row r="1682" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1682" s="3"/>
+    </row>
+    <row r="1683" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1683" s="3"/>
+    </row>
+    <row r="1684" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1684" s="3"/>
+    </row>
+    <row r="1685" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1685" s="3"/>
+    </row>
+    <row r="1686" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1686" s="3"/>
+    </row>
+    <row r="1687" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1687" s="3"/>
+    </row>
+    <row r="1688" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1688" s="3"/>
+    </row>
+    <row r="1689" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1689" s="3"/>
+    </row>
+    <row r="1690" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1690" s="3"/>
+    </row>
+    <row r="1691" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1691" s="3"/>
+    </row>
+    <row r="1692" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1692" s="3"/>
+    </row>
+    <row r="1693" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1693" s="3"/>
+    </row>
+    <row r="1694" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1694" s="3"/>
+    </row>
+    <row r="1695" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1695" s="3"/>
+    </row>
+    <row r="1696" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1696" s="3"/>
+    </row>
+    <row r="1697" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1697" s="3"/>
+    </row>
+    <row r="1698" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1698" s="3"/>
+    </row>
+    <row r="1699" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1699" s="3"/>
+    </row>
+    <row r="1700" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1700" s="3"/>
+    </row>
+    <row r="1701" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1701" s="3"/>
+    </row>
+    <row r="1702" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1702" s="3"/>
+    </row>
+    <row r="1703" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1703" s="3"/>
+    </row>
+    <row r="1704" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1704" s="3"/>
+    </row>
+    <row r="1705" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1705" s="3"/>
+    </row>
+    <row r="1706" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1706" s="3"/>
+    </row>
+    <row r="1707" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1707" s="3"/>
+    </row>
+    <row r="1708" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1708" s="3"/>
+    </row>
+    <row r="1709" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1709" s="3"/>
+    </row>
+    <row r="1710" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1710" s="3"/>
+    </row>
+    <row r="1711" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1711" s="3"/>
+    </row>
+    <row r="1712" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1712" s="3"/>
+    </row>
+    <row r="1713" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1713" s="3"/>
+    </row>
+    <row r="1714" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1714" s="3"/>
+    </row>
+    <row r="1715" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1715" s="3"/>
+    </row>
+    <row r="1716" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1716" s="3"/>
+    </row>
+    <row r="1717" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1717" s="3"/>
+    </row>
+    <row r="1718" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1718" s="3"/>
+    </row>
+    <row r="1719" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1719" s="3"/>
+    </row>
+    <row r="1720" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1720" s="3"/>
+    </row>
+    <row r="1721" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1721" s="3"/>
+    </row>
+    <row r="1722" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1722" s="3"/>
+    </row>
+    <row r="1723" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1723" s="3"/>
+    </row>
+    <row r="1724" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1724" s="3"/>
+    </row>
+    <row r="1725" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1725" s="3"/>
+    </row>
+    <row r="1726" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1726" s="3"/>
+    </row>
+    <row r="1727" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1727" s="3"/>
+    </row>
+    <row r="1728" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1728" s="3"/>
+    </row>
+    <row r="1729" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1729" s="3"/>
+    </row>
+    <row r="1730" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1730" s="3"/>
+    </row>
+    <row r="1731" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1731" s="3"/>
+    </row>
+    <row r="1732" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1732" s="3"/>
+    </row>
+    <row r="1733" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1733" s="3"/>
+    </row>
+    <row r="1734" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1734" s="3"/>
+    </row>
+    <row r="1735" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1735" s="3"/>
+    </row>
+    <row r="1736" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1736" s="3"/>
+    </row>
+    <row r="1737" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1737" s="3"/>
+    </row>
+    <row r="1738" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1738" s="3"/>
+    </row>
+    <row r="1739" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1739" s="3"/>
+    </row>
+    <row r="1740" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1740" s="3"/>
+    </row>
+    <row r="1741" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1741" s="3"/>
+    </row>
+    <row r="1742" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1742" s="3"/>
+    </row>
+    <row r="1743" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1743" s="3"/>
+    </row>
+    <row r="1744" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1744" s="3"/>
+    </row>
+    <row r="1745" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1745" s="3"/>
+    </row>
+    <row r="1746" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1746" s="3"/>
+    </row>
+    <row r="1747" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1747" s="3"/>
+    </row>
+    <row r="1748" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1748" s="3"/>
+    </row>
+    <row r="1749" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1749" s="3"/>
+    </row>
+    <row r="1750" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1750" s="3"/>
+    </row>
+    <row r="1751" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1751" s="3"/>
+    </row>
+    <row r="1752" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1752" s="3"/>
+    </row>
+    <row r="1753" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1753" s="3"/>
+    </row>
+    <row r="1754" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1754" s="3"/>
+    </row>
+    <row r="1755" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1755" s="3"/>
+    </row>
+    <row r="1756" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1756" s="3"/>
+    </row>
+    <row r="1757" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1757" s="3"/>
+    </row>
+    <row r="1758" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1758" s="3"/>
+    </row>
+    <row r="1759" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1759" s="3"/>
+    </row>
+    <row r="1760" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1760" s="3"/>
+    </row>
+    <row r="1761" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1761" s="3"/>
+    </row>
+    <row r="1762" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1762" s="3"/>
+    </row>
+    <row r="1763" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1763" s="3"/>
+    </row>
+    <row r="1764" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1764" s="3"/>
+    </row>
+    <row r="1765" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1765" s="3"/>
+    </row>
+    <row r="1766" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1766" s="3"/>
+    </row>
+    <row r="1767" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1767" s="3"/>
+    </row>
+    <row r="1768" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1768" s="3"/>
+    </row>
+    <row r="1769" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1769" s="3"/>
+    </row>
+    <row r="1770" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1770" s="3"/>
+    </row>
+    <row r="1771" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1771" s="3"/>
+    </row>
+    <row r="1772" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1772" s="3"/>
+    </row>
+    <row r="1773" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1773" s="3"/>
+    </row>
+    <row r="1774" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1774" s="3"/>
+    </row>
+    <row r="1775" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1775" s="3"/>
+    </row>
+    <row r="1776" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1776" s="3"/>
+    </row>
+    <row r="1777" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1777" s="3"/>
+    </row>
+    <row r="1778" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1778" s="3"/>
+    </row>
+    <row r="1779" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1779" s="3"/>
+    </row>
+    <row r="1780" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1780" s="3"/>
+    </row>
+    <row r="1781" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1781" s="3"/>
+    </row>
+    <row r="1782" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1782" s="3"/>
+    </row>
+    <row r="1783" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1783" s="3"/>
+    </row>
+    <row r="1784" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1784" s="3"/>
+    </row>
+    <row r="1785" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1785" s="3"/>
+    </row>
+    <row r="1786" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1786" s="3"/>
+    </row>
+    <row r="1787" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1787" s="3"/>
+    </row>
+    <row r="1788" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1788" s="3"/>
+    </row>
+    <row r="1789" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1789" s="3"/>
+    </row>
+    <row r="1790" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1790" s="3"/>
+    </row>
+    <row r="1791" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1791" s="3"/>
+    </row>
+    <row r="1792" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1792" s="3"/>
+    </row>
+    <row r="1793" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1793" s="3"/>
+    </row>
+    <row r="1794" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1794" s="3"/>
+    </row>
+    <row r="1795" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1795" s="3"/>
+    </row>
+    <row r="1796" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1796" s="3"/>
+    </row>
+    <row r="1797" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1797" s="3"/>
+    </row>
+    <row r="1798" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1798" s="3"/>
+    </row>
+    <row r="1799" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1799" s="3"/>
+    </row>
+    <row r="1800" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1800" s="3"/>
+    </row>
+    <row r="1801" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1801" s="3"/>
+    </row>
+    <row r="1802" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1802" s="3"/>
+    </row>
+    <row r="1803" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1803" s="3"/>
+    </row>
+    <row r="1804" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1804" s="3"/>
+    </row>
+    <row r="1805" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1805" s="3"/>
+    </row>
+    <row r="1806" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1806" s="3"/>
+    </row>
+    <row r="1807" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1807" s="3"/>
+    </row>
+    <row r="1808" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1808" s="3"/>
+    </row>
+    <row r="1809" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1809" s="3"/>
+    </row>
+    <row r="1810" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1810" s="3"/>
+    </row>
+    <row r="1811" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1811" s="3"/>
+    </row>
+    <row r="1812" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1812" s="3"/>
+    </row>
+    <row r="1813" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1813" s="3"/>
+    </row>
+    <row r="1814" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1814" s="3"/>
+    </row>
+    <row r="1815" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1815" s="3"/>
+    </row>
+    <row r="1816" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1816" s="3"/>
+    </row>
+    <row r="1817" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1817" s="3"/>
+    </row>
+    <row r="1818" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1818" s="3"/>
+    </row>
+    <row r="1819" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1819" s="3"/>
+    </row>
+    <row r="1820" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1820" s="3"/>
+    </row>
+    <row r="1821" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1821" s="3"/>
+    </row>
+    <row r="1822" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1822" s="3"/>
+    </row>
+    <row r="1823" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1823" s="3"/>
+    </row>
+    <row r="1824" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1824" s="3"/>
+    </row>
+    <row r="1825" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1825" s="3"/>
+    </row>
+    <row r="1826" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1826" s="3"/>
+    </row>
+    <row r="1827" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1827" s="3"/>
+    </row>
+    <row r="1828" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1828" s="3"/>
+    </row>
+    <row r="1829" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1829" s="3"/>
+    </row>
+    <row r="1830" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1830" s="3"/>
+    </row>
+    <row r="1831" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1831" s="3"/>
+    </row>
+    <row r="1832" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1832" s="3"/>
+    </row>
+    <row r="1833" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1833" s="3"/>
+    </row>
+    <row r="1834" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1834" s="3"/>
+    </row>
+    <row r="1835" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1835" s="3"/>
+    </row>
+    <row r="1836" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1836" s="3"/>
+    </row>
+    <row r="1837" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1837" s="3"/>
+    </row>
+    <row r="1838" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1838" s="3"/>
+    </row>
+    <row r="1839" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1839" s="3"/>
+    </row>
+    <row r="1840" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1840" s="3"/>
+    </row>
+    <row r="1841" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1841" s="3"/>
+    </row>
+    <row r="1842" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1842" s="3"/>
+    </row>
+    <row r="1843" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1843" s="3"/>
+    </row>
+    <row r="1844" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1844" s="3"/>
+    </row>
+    <row r="1845" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1845" s="3"/>
+    </row>
+    <row r="1846" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1846" s="3"/>
+    </row>
+    <row r="1847" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1847" s="3"/>
+    </row>
+    <row r="1848" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1848" s="3"/>
+    </row>
+    <row r="1849" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1849" s="3"/>
+    </row>
+    <row r="1850" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1850" s="3"/>
+    </row>
+    <row r="1851" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1851" s="3"/>
+    </row>
+    <row r="1852" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1852" s="3"/>
+    </row>
+    <row r="1853" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1853" s="3"/>
+    </row>
+    <row r="1854" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1854" s="3"/>
+    </row>
+    <row r="1855" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1855" s="3"/>
+    </row>
+    <row r="1856" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1856" s="3"/>
+    </row>
+    <row r="1857" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1857" s="3"/>
+    </row>
+    <row r="1858" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1858" s="3"/>
+    </row>
+    <row r="1859" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1859" s="3"/>
+    </row>
+    <row r="1860" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1860" s="3"/>
+    </row>
+    <row r="1861" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1861" s="3"/>
+    </row>
+    <row r="1862" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1862" s="3"/>
+    </row>
+    <row r="1863" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1863" s="3"/>
+    </row>
+    <row r="1864" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1864" s="3"/>
+    </row>
+    <row r="1865" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1865" s="3"/>
+    </row>
+    <row r="1866" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1866" s="3"/>
+    </row>
+    <row r="1867" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1867" s="3"/>
+    </row>
+    <row r="1868" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1868" s="3"/>
+    </row>
+    <row r="1869" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1869" s="3"/>
+    </row>
+    <row r="1870" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1870" s="3"/>
+    </row>
+    <row r="1871" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1871" s="3"/>
+    </row>
+    <row r="1872" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1872" s="3"/>
+    </row>
+    <row r="1873" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1873" s="3"/>
+    </row>
+    <row r="1874" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1874" s="3"/>
+    </row>
+    <row r="1875" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1875" s="3"/>
+    </row>
+    <row r="1876" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1876" s="3"/>
+    </row>
+    <row r="1877" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1877" s="3"/>
+    </row>
+    <row r="1878" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1878" s="3"/>
+    </row>
+    <row r="1879" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1879" s="3"/>
+    </row>
+    <row r="1880" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1880" s="3"/>
+    </row>
+    <row r="1881" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1881" s="3"/>
+    </row>
+    <row r="1882" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1882" s="3"/>
+    </row>
+    <row r="1883" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1883" s="3"/>
+    </row>
+    <row r="1884" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1884" s="3"/>
+    </row>
+    <row r="1885" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1885" s="3"/>
+    </row>
+    <row r="1886" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1886" s="3"/>
+    </row>
+    <row r="1887" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1887" s="3"/>
+    </row>
+    <row r="1888" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1888" s="3"/>
+    </row>
+    <row r="1889" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1889" s="3"/>
+    </row>
+    <row r="1890" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1890" s="3"/>
+    </row>
+    <row r="1891" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1891" s="3"/>
+    </row>
+    <row r="1892" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1892" s="3"/>
+    </row>
+    <row r="1893" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1893" s="3"/>
+    </row>
+    <row r="1894" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1894" s="3"/>
+    </row>
+    <row r="1895" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1895" s="3"/>
+    </row>
+    <row r="1896" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1896" s="3"/>
+    </row>
+    <row r="1897" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1897" s="3"/>
+    </row>
+    <row r="1898" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1898" s="3"/>
+    </row>
+    <row r="1899" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1899" s="3"/>
+    </row>
+    <row r="1900" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1900" s="3"/>
+    </row>
+    <row r="1901" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1901" s="3"/>
+    </row>
+    <row r="1902" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1902" s="3"/>
+    </row>
+    <row r="1903" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1903" s="3"/>
+    </row>
+    <row r="1904" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1904" s="3"/>
+    </row>
+    <row r="1905" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1905" s="3"/>
+    </row>
+    <row r="1906" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1906" s="3"/>
+    </row>
+    <row r="1907" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1907" s="3"/>
+    </row>
+    <row r="1908" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1908" s="3"/>
+    </row>
+    <row r="1909" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1909" s="3"/>
+    </row>
+    <row r="1910" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1910" s="3"/>
+    </row>
+    <row r="1911" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1911" s="3"/>
+    </row>
+    <row r="1912" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1912" s="3"/>
+    </row>
+    <row r="1913" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1913" s="3"/>
+    </row>
+    <row r="1914" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1914" s="3"/>
+    </row>
+    <row r="1915" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1915" s="3"/>
+    </row>
+    <row r="1916" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1916" s="3"/>
+    </row>
+    <row r="1917" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1917" s="3"/>
+    </row>
+    <row r="1918" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1918" s="3"/>
+    </row>
+    <row r="1919" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1919" s="3"/>
+    </row>
+    <row r="1920" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1920" s="3"/>
+    </row>
+    <row r="1921" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1921" s="3"/>
+    </row>
+    <row r="1922" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1922" s="3"/>
+    </row>
+    <row r="1923" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1923" s="3"/>
+    </row>
+    <row r="1924" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1924" s="3"/>
+    </row>
+    <row r="1925" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1925" s="3"/>
+    </row>
+    <row r="1926" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1926" s="3"/>
+    </row>
+    <row r="1927" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1927" s="3"/>
+    </row>
+    <row r="1928" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1928" s="3"/>
+    </row>
+    <row r="1929" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1929" s="3"/>
+    </row>
+    <row r="1930" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1930" s="3"/>
+    </row>
+    <row r="1931" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1931" s="3"/>
+    </row>
+    <row r="1932" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1932" s="3"/>
+    </row>
+    <row r="1933" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1933" s="3"/>
+    </row>
+    <row r="1934" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1934" s="3"/>
+    </row>
+    <row r="1935" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1935" s="3"/>
+    </row>
+    <row r="1936" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1936" s="3"/>
+    </row>
+    <row r="1937" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1937" s="3"/>
+    </row>
+    <row r="1938" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1938" s="3"/>
+    </row>
+    <row r="1939" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1939" s="3"/>
+    </row>
+    <row r="1940" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1940" s="3"/>
+    </row>
+    <row r="1941" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1941" s="3"/>
+    </row>
+    <row r="1942" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1942" s="3"/>
+    </row>
+    <row r="1943" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1943" s="3"/>
+    </row>
+    <row r="1944" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1944" s="3"/>
+    </row>
+    <row r="1945" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1945" s="3"/>
+    </row>
+    <row r="1946" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1946" s="3"/>
+    </row>
+    <row r="1947" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1947" s="3"/>
+    </row>
+    <row r="1948" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1948" s="3"/>
+    </row>
+    <row r="1949" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1949" s="3"/>
+    </row>
+    <row r="1950" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1950" s="3"/>
+    </row>
+    <row r="1951" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1951" s="3"/>
+    </row>
+    <row r="1952" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1952" s="3"/>
+    </row>
+    <row r="1953" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1953" s="3"/>
+    </row>
+    <row r="1954" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1954" s="3"/>
+    </row>
+    <row r="1955" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1955" s="3"/>
+    </row>
+    <row r="1956" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1956" s="3"/>
+    </row>
+    <row r="1957" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1957" s="3"/>
+    </row>
+    <row r="1958" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1958" s="3"/>
+    </row>
+    <row r="1959" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1959" s="3"/>
+    </row>
+    <row r="1960" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1960" s="3"/>
+    </row>
+    <row r="1961" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1961" s="3"/>
+    </row>
+    <row r="1962" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1962" s="3"/>
+    </row>
+    <row r="1963" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1963" s="3"/>
+    </row>
+    <row r="1964" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1964" s="3"/>
+    </row>
+    <row r="1965" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1965" s="3"/>
+    </row>
+    <row r="1966" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1966" s="3"/>
+    </row>
+    <row r="1967" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1967" s="3"/>
+    </row>
+    <row r="1968" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1968" s="3"/>
+    </row>
+    <row r="1969" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1969" s="3"/>
+    </row>
+    <row r="1970" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1970" s="3"/>
+    </row>
+    <row r="1971" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1971" s="3"/>
+    </row>
+    <row r="1972" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1972" s="3"/>
+    </row>
+    <row r="1973" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1973" s="3"/>
+    </row>
+    <row r="1974" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1974" s="3"/>
+    </row>
+    <row r="1975" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1975" s="3"/>
+    </row>
+    <row r="1976" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1976" s="3"/>
+    </row>
+    <row r="1977" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1977" s="3"/>
+    </row>
+    <row r="1978" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1978" s="3"/>
+    </row>
+    <row r="1979" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1979" s="3"/>
+    </row>
+    <row r="1980" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1980" s="3"/>
+    </row>
+    <row r="1981" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1981" s="3"/>
+    </row>
+    <row r="1982" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1982" s="3"/>
+    </row>
+    <row r="1983" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1983" s="3"/>
+    </row>
+    <row r="1984" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1984" s="3"/>
+    </row>
+    <row r="1985" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1985" s="3"/>
+    </row>
+    <row r="1986" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1986" s="3"/>
+    </row>
+    <row r="1987" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1987" s="3"/>
+    </row>
+    <row r="1988" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1988" s="3"/>
+    </row>
+    <row r="1989" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1989" s="3"/>
+    </row>
+    <row r="1990" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1990" s="3"/>
+    </row>
+    <row r="1991" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1991" s="3"/>
+    </row>
+    <row r="1992" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1992" s="3"/>
+    </row>
+    <row r="1993" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1993" s="3"/>
+    </row>
+    <row r="1994" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1994" s="3"/>
+    </row>
+    <row r="1995" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1995" s="3"/>
+    </row>
+    <row r="1996" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1996" s="3"/>
+    </row>
+    <row r="1997" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1997" s="3"/>
+    </row>
+    <row r="1998" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1998" s="3"/>
+    </row>
+    <row r="1999" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1999" s="3"/>
+    </row>
+    <row r="2000" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2000" s="3"/>
+    </row>
+    <row r="2001" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2001" s="3"/>
+    </row>
+    <row r="2002" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2002" s="3"/>
+    </row>
+    <row r="2003" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2003" s="3"/>
+    </row>
+    <row r="2004" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2004" s="3"/>
+    </row>
+    <row r="2005" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2005" s="3"/>
+    </row>
+    <row r="2006" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2006" s="3"/>
+    </row>
+    <row r="2007" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2007" s="3"/>
+    </row>
+    <row r="2008" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2008" s="3"/>
+    </row>
+    <row r="2009" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2009" s="3"/>
+    </row>
+    <row r="2010" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2010" s="3"/>
+    </row>
+    <row r="2011" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2011" s="3"/>
+    </row>
+    <row r="2012" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2012" s="3"/>
+    </row>
+    <row r="2013" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2013" s="3"/>
+    </row>
+    <row r="2014" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2014" s="3"/>
+    </row>
+    <row r="2015" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2015" s="3"/>
+    </row>
+    <row r="2016" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2016" s="3"/>
+    </row>
+    <row r="2017" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2017" s="3"/>
+    </row>
+    <row r="2018" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2018" s="3"/>
+    </row>
+    <row r="2019" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2019" s="3"/>
+    </row>
+    <row r="2020" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2020" s="3"/>
+    </row>
+    <row r="2021" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2021" s="3"/>
+    </row>
+    <row r="2022" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2022" s="3"/>
+    </row>
+    <row r="2023" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2023" s="3"/>
+    </row>
+    <row r="2024" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2024" s="3"/>
+    </row>
+    <row r="2025" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2025" s="3"/>
+    </row>
+    <row r="2026" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2026" s="3"/>
+    </row>
+    <row r="2027" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2027" s="3"/>
+    </row>
+    <row r="2028" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2028" s="3"/>
+    </row>
+    <row r="2029" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2029" s="3"/>
+    </row>
+    <row r="2030" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2030" s="3"/>
+    </row>
+    <row r="2031" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2031" s="3"/>
+    </row>
+    <row r="2032" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2032" s="3"/>
+    </row>
+    <row r="2033" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2033" s="3"/>
+    </row>
+    <row r="2034" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2034" s="3"/>
+    </row>
+    <row r="2035" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2035" s="3"/>
+    </row>
+    <row r="2036" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2036" s="3"/>
+    </row>
+    <row r="2037" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2037" s="3"/>
+    </row>
+    <row r="2038" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2038" s="3"/>
+    </row>
+    <row r="2039" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2039" s="3"/>
+    </row>
+    <row r="2040" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2040" s="3"/>
+    </row>
+    <row r="2041" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2041" s="3"/>
+    </row>
+    <row r="2042" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2042" s="3"/>
+    </row>
+    <row r="2043" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2043" s="3"/>
+    </row>
+    <row r="2044" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2044" s="3"/>
+    </row>
+    <row r="2045" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2045" s="3"/>
+    </row>
+    <row r="2046" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2046" s="3"/>
+    </row>
+    <row r="2047" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2047" s="3"/>
+    </row>
+    <row r="2048" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2048" s="3"/>
+    </row>
+    <row r="2049" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2049" s="3"/>
+    </row>
+    <row r="2050" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2050" s="3"/>
+    </row>
+    <row r="2051" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2051" s="3"/>
+    </row>
+    <row r="2052" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2052" s="3"/>
+    </row>
+    <row r="2053" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2053" s="3"/>
+    </row>
+    <row r="2054" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2054" s="3"/>
+    </row>
+    <row r="2055" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2055" s="3"/>
+    </row>
+    <row r="2056" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2056" s="3"/>
+    </row>
+    <row r="2057" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2057" s="3"/>
+    </row>
+    <row r="2058" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2058" s="3"/>
+    </row>
+    <row r="2059" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2059" s="3"/>
+    </row>
+    <row r="2060" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2060" s="3"/>
+    </row>
+    <row r="2061" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2061" s="3"/>
+    </row>
+    <row r="2062" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2062" s="3"/>
+    </row>
+    <row r="2063" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2063" s="3"/>
+    </row>
+    <row r="2064" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2064" s="3"/>
+    </row>
+    <row r="2065" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2065" s="3"/>
+    </row>
+    <row r="2066" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2066" s="3"/>
+    </row>
+    <row r="2067" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2067" s="3"/>
+    </row>
+    <row r="2068" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2068" s="3"/>
+    </row>
+    <row r="2069" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2069" s="3"/>
+    </row>
+    <row r="2070" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2070" s="3"/>
+    </row>
+    <row r="2071" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2071" s="3"/>
+    </row>
+    <row r="2072" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2072" s="3"/>
+    </row>
+    <row r="2073" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2073" s="3"/>
+    </row>
+    <row r="2074" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2074" s="3"/>
+    </row>
+    <row r="2075" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2075" s="3"/>
+    </row>
+    <row r="2076" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2076" s="3"/>
+    </row>
+    <row r="2077" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2077" s="3"/>
+    </row>
+    <row r="2078" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2078" s="3"/>
+    </row>
+    <row r="2079" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2079" s="3"/>
+    </row>
+    <row r="2080" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2080" s="3"/>
+    </row>
+    <row r="2081" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2081" s="3"/>
+    </row>
+    <row r="2082" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2082" s="3"/>
+    </row>
+    <row r="2083" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2083" s="3"/>
+    </row>
+    <row r="2084" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2084" s="3"/>
+    </row>
+    <row r="2085" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2085" s="3"/>
+    </row>
+    <row r="2086" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2086" s="3"/>
+    </row>
+    <row r="2087" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2087" s="3"/>
+    </row>
+    <row r="2088" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2088" s="3"/>
+    </row>
+    <row r="2089" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2089" s="3"/>
+    </row>
+    <row r="2090" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2090" s="3"/>
+    </row>
+    <row r="2091" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2091" s="3"/>
+    </row>
+    <row r="2092" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2092" s="3"/>
+    </row>
+    <row r="2093" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2093" s="3"/>
+    </row>
+    <row r="2094" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2094" s="3"/>
+    </row>
+    <row r="2095" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2095" s="3"/>
+    </row>
+    <row r="2096" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2096" s="3"/>
+    </row>
+    <row r="2097" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2097" s="3"/>
+    </row>
+    <row r="2098" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2098" s="3"/>
+    </row>
+    <row r="2099" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2099" s="3"/>
+    </row>
+    <row r="2100" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2100" s="3"/>
+    </row>
+    <row r="2101" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2101" s="3"/>
+    </row>
+    <row r="2102" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2102" s="3"/>
+    </row>
+    <row r="2103" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2103" s="3"/>
+    </row>
+    <row r="2104" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2104" s="3"/>
+    </row>
+    <row r="2105" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2105" s="3"/>
+    </row>
+    <row r="2106" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2106" s="3"/>
+    </row>
+    <row r="2107" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2107" s="3"/>
+    </row>
+    <row r="2108" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2108" s="3"/>
+    </row>
+    <row r="2109" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2109" s="3"/>
+    </row>
+    <row r="2110" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2110" s="3"/>
+    </row>
+    <row r="2111" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2111" s="3"/>
+    </row>
+    <row r="2112" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2112" s="3"/>
+    </row>
+    <row r="2113" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2113" s="3"/>
+    </row>
+    <row r="2114" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2114" s="3"/>
+    </row>
+    <row r="2115" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2115" s="3"/>
+    </row>
+    <row r="2116" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2116" s="3"/>
+    </row>
+    <row r="2117" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2117" s="3"/>
+    </row>
+    <row r="2118" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2118" s="3"/>
+    </row>
+    <row r="2119" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2119" s="3"/>
+    </row>
+    <row r="2120" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2120" s="3"/>
+    </row>
+    <row r="2121" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2121" s="3"/>
+    </row>
+    <row r="2122" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2122" s="3"/>
+    </row>
+    <row r="2123" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2123" s="3"/>
+    </row>
+    <row r="2124" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2124" s="3"/>
+    </row>
+    <row r="2125" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2125" s="3"/>
+    </row>
+    <row r="2126" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2126" s="3"/>
+    </row>
+    <row r="2127" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2127" s="3"/>
+    </row>
+    <row r="2128" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2128" s="3"/>
+    </row>
+    <row r="2129" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2129" s="3"/>
+    </row>
+    <row r="2130" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2130" s="3"/>
+    </row>
+    <row r="2131" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2131" s="3"/>
+    </row>
+    <row r="2132" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2132" s="3"/>
+    </row>
+    <row r="2133" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2133" s="3"/>
+    </row>
+    <row r="2134" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2134" s="3"/>
+    </row>
+    <row r="2135" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2135" s="3"/>
+    </row>
+    <row r="2136" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2136" s="3"/>
+    </row>
+    <row r="2137" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2137" s="3"/>
+    </row>
+    <row r="2138" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2138" s="3"/>
+    </row>
+    <row r="2139" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2139" s="3"/>
+    </row>
+    <row r="2140" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2140" s="3"/>
+    </row>
+    <row r="2141" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2141" s="3"/>
+    </row>
+    <row r="2142" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2142" s="3"/>
+    </row>
+    <row r="2143" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2143" s="3"/>
+    </row>
+    <row r="2144" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2144" s="3"/>
+    </row>
+    <row r="2145" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2145" s="3"/>
+    </row>
+    <row r="2146" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2146" s="3"/>
+    </row>
+    <row r="2147" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2147" s="3"/>
+    </row>
+    <row r="2148" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2148" s="3"/>
+    </row>
+    <row r="2149" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2149" s="3"/>
+    </row>
+    <row r="2150" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2150" s="3"/>
+    </row>
+    <row r="2151" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2151" s="3"/>
+    </row>
+    <row r="2152" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2152" s="3"/>
+    </row>
+    <row r="2153" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2153" s="3"/>
+    </row>
+    <row r="2154" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2154" s="3"/>
+    </row>
+    <row r="2155" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2155" s="3"/>
+    </row>
+    <row r="2156" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2156" s="3"/>
+    </row>
+    <row r="2157" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2157" s="3"/>
+    </row>
+    <row r="2158" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2158" s="3"/>
+    </row>
+    <row r="2159" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2159" s="3"/>
+    </row>
+    <row r="2160" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2160" s="3"/>
+    </row>
+    <row r="2161" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2161" s="3"/>
+    </row>
+    <row r="2162" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2162" s="3"/>
+    </row>
+    <row r="2163" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2163" s="3"/>
+    </row>
+    <row r="2164" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2164" s="3"/>
+    </row>
+    <row r="2165" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2165" s="3"/>
+    </row>
+    <row r="2166" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2166" s="3"/>
+    </row>
+    <row r="2167" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2167" s="3"/>
+    </row>
+    <row r="2168" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2168" s="3"/>
+    </row>
+    <row r="2169" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2169" s="3"/>
+    </row>
+    <row r="2170" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2170" s="3"/>
+    </row>
+    <row r="2171" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2171" s="3"/>
+    </row>
+    <row r="2172" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2172" s="3"/>
+    </row>
+    <row r="2173" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2173" s="3"/>
+    </row>
+    <row r="2174" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2174" s="3"/>
+    </row>
+    <row r="2175" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2175" s="3"/>
+    </row>
+    <row r="2176" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2176" s="3"/>
+    </row>
+    <row r="2177" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2177" s="3"/>
+    </row>
+    <row r="2178" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2178" s="3"/>
+    </row>
+    <row r="2179" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2179" s="3"/>
+    </row>
+    <row r="2180" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2180" s="3"/>
+    </row>
+    <row r="2181" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2181" s="3"/>
+    </row>
+    <row r="2182" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2182" s="3"/>
+    </row>
+    <row r="2183" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2183" s="3"/>
+    </row>
+    <row r="2184" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2184" s="3"/>
+    </row>
+    <row r="2185" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2185" s="3"/>
+    </row>
+    <row r="2186" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2186" s="3"/>
+    </row>
+    <row r="2187" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2187" s="3"/>
+    </row>
+    <row r="2188" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2188" s="3"/>
+    </row>
+    <row r="2189" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2189" s="3"/>
+    </row>
+    <row r="2190" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2190" s="3"/>
+    </row>
+    <row r="2191" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2191" s="3"/>
+    </row>
+    <row r="2192" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2192" s="3"/>
+    </row>
+    <row r="2193" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2193" s="3"/>
+    </row>
+    <row r="2194" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2194" s="3"/>
+    </row>
+    <row r="2195" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2195" s="3"/>
+    </row>
+    <row r="2196" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2196" s="3"/>
+    </row>
+    <row r="2197" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2197" s="3"/>
+    </row>
+    <row r="2198" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2198" s="3"/>
+    </row>
+    <row r="2199" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2199" s="3"/>
+    </row>
+    <row r="2200" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2200" s="3"/>
+    </row>
+    <row r="2201" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2201" s="3"/>
+    </row>
+    <row r="2202" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2202" s="3"/>
+    </row>
+    <row r="2203" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2203" s="3"/>
+    </row>
+    <row r="2204" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2204" s="3"/>
+    </row>
+    <row r="2205" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2205" s="3"/>
+    </row>
+    <row r="2206" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2206" s="3"/>
+    </row>
+    <row r="2207" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2207" s="3"/>
+    </row>
+    <row r="2208" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2208" s="3"/>
+    </row>
+    <row r="2209" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2209" s="3"/>
+    </row>
+    <row r="2210" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2210" s="3"/>
+    </row>
+    <row r="2211" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2211" s="3"/>
+    </row>
+    <row r="2212" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2212" s="3"/>
+    </row>
+    <row r="2213" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2213" s="3"/>
+    </row>
+    <row r="2214" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2214" s="3"/>
+    </row>
+    <row r="2215" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2215" s="3"/>
+    </row>
+    <row r="2216" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2216" s="3"/>
+    </row>
+    <row r="2217" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2217" s="3"/>
+    </row>
+    <row r="2218" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2218" s="3"/>
+    </row>
+    <row r="2219" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2219" s="3"/>
+    </row>
+    <row r="2220" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2220" s="3"/>
+    </row>
+    <row r="2221" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2221" s="3"/>
+    </row>
+    <row r="2222" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2222" s="3"/>
+    </row>
+    <row r="2223" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2223" s="3"/>
+    </row>
+    <row r="2224" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2224" s="3"/>
+    </row>
+    <row r="2225" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2225" s="3"/>
+    </row>
+    <row r="2226" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2226" s="3"/>
+    </row>
+    <row r="2227" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2227" s="3"/>
+    </row>
+    <row r="2228" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2228" s="3"/>
+    </row>
+    <row r="2229" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2229" s="3"/>
+    </row>
+    <row r="2230" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2230" s="3"/>
+    </row>
+    <row r="2231" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2231" s="3"/>
+    </row>
+    <row r="2232" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2232" s="3"/>
+    </row>
+    <row r="2233" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2233" s="3"/>
+    </row>
+    <row r="2234" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2234" s="3"/>
+    </row>
+    <row r="2235" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2235" s="3"/>
+    </row>
+    <row r="2236" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2236" s="3"/>
+    </row>
+    <row r="2237" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2237" s="3"/>
+    </row>
+    <row r="2238" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2238" s="3"/>
+    </row>
+    <row r="2239" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2239" s="3"/>
+    </row>
+    <row r="2240" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2240" s="3"/>
+    </row>
+    <row r="2241" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2241" s="3"/>
+    </row>
+    <row r="2242" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2242" s="3"/>
+    </row>
+    <row r="2243" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2243" s="3"/>
+    </row>
+    <row r="2244" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2244" s="3"/>
+    </row>
+    <row r="2245" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2245" s="3"/>
+    </row>
+    <row r="2246" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2246" s="3"/>
+    </row>
+    <row r="2247" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2247" s="3"/>
+    </row>
+    <row r="2248" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2248" s="3"/>
+    </row>
+    <row r="2249" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2249" s="3"/>
+    </row>
+    <row r="2250" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2250" s="3"/>
+    </row>
+    <row r="2251" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2251" s="3"/>
+    </row>
+    <row r="2252" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2252" s="3"/>
+    </row>
+    <row r="2253" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2253" s="3"/>
+    </row>
+    <row r="2254" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2254" s="3"/>
+    </row>
+    <row r="2255" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2255" s="3"/>
+    </row>
+    <row r="2256" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2256" s="3"/>
+    </row>
+    <row r="2257" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2257" s="3"/>
+    </row>
+    <row r="2258" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2258" s="3"/>
+    </row>
+    <row r="2259" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2259" s="3"/>
+    </row>
+    <row r="2260" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2260" s="3"/>
+    </row>
+    <row r="2261" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2261" s="3"/>
+    </row>
+    <row r="2262" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2262" s="3"/>
+    </row>
+    <row r="2263" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2263" s="3"/>
+    </row>
+    <row r="2264" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2264" s="3"/>
+    </row>
+    <row r="2265" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2265" s="3"/>
+    </row>
+    <row r="2266" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2266" s="3"/>
+    </row>
+    <row r="2267" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2267" s="3"/>
+    </row>
+    <row r="2268" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2268" s="3"/>
+    </row>
+    <row r="2269" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2269" s="3"/>
+    </row>
+    <row r="2270" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2270" s="3"/>
+    </row>
+    <row r="2271" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2271" s="3"/>
+    </row>
+    <row r="2272" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2272" s="3"/>
+    </row>
+    <row r="2273" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2273" s="3"/>
+    </row>
+    <row r="2274" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2274" s="3"/>
+    </row>
+    <row r="2275" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2275" s="3"/>
+    </row>
+    <row r="2276" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2276" s="3"/>
+    </row>
+    <row r="2277" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2277" s="3"/>
+    </row>
+    <row r="2278" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2278" s="3"/>
+    </row>
+    <row r="2279" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2279" s="3"/>
+    </row>
+    <row r="2280" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2280" s="3"/>
+    </row>
+    <row r="2281" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2281" s="3"/>
+    </row>
+    <row r="2282" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2282" s="3"/>
+    </row>
+    <row r="2283" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2283" s="3"/>
+    </row>
+    <row r="2284" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2284" s="3"/>
+    </row>
+    <row r="2285" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2285" s="3"/>
+    </row>
+    <row r="2286" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2286" s="3"/>
+    </row>
+    <row r="2287" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2287" s="3"/>
+    </row>
+    <row r="2288" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2288" s="3"/>
+    </row>
+    <row r="2289" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2289" s="3"/>
+    </row>
+    <row r="2290" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2290" s="3"/>
+    </row>
+    <row r="2291" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2291" s="3"/>
+    </row>
+    <row r="2292" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2292" s="3"/>
+    </row>
+    <row r="2293" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2293" s="3"/>
+    </row>
+    <row r="2294" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2294" s="3"/>
+    </row>
+    <row r="2295" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2295" s="3"/>
+    </row>
+    <row r="2296" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2296" s="3"/>
+    </row>
+    <row r="2297" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2297" s="3"/>
+    </row>
+    <row r="2298" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2298" s="3"/>
+    </row>
+    <row r="2299" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2299" s="3"/>
+    </row>
+    <row r="2300" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2300" s="3"/>
+    </row>
+    <row r="2301" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2301" s="3"/>
+    </row>
+    <row r="2302" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2302" s="3"/>
+    </row>
+    <row r="2303" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2303" s="3"/>
+    </row>
+    <row r="2304" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2304" s="3"/>
+    </row>
+    <row r="2305" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2305" s="3"/>
+    </row>
+    <row r="2306" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2306" s="3"/>
+    </row>
+    <row r="2307" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2307" s="3"/>
+    </row>
+    <row r="2308" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2308" s="3"/>
+    </row>
+    <row r="2309" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2309" s="3"/>
+    </row>
+    <row r="2310" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2310" s="3"/>
+    </row>
+    <row r="2311" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2311" s="3"/>
+    </row>
+    <row r="2312" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2312" s="3"/>
+    </row>
+    <row r="2313" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2313" s="3"/>
+    </row>
+    <row r="2314" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2314" s="3"/>
+    </row>
+    <row r="2315" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2315" s="3"/>
+    </row>
+    <row r="2316" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2316" s="3"/>
+    </row>
+    <row r="2317" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2317" s="3"/>
+    </row>
+    <row r="2318" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2318" s="3"/>
+    </row>
+    <row r="2319" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2319" s="3"/>
+    </row>
+    <row r="2320" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2320" s="3"/>
+    </row>
+    <row r="2321" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2321" s="3"/>
+    </row>
+    <row r="2322" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2322" s="3"/>
+    </row>
+    <row r="2323" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2323" s="3"/>
+    </row>
+    <row r="2324" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2324" s="3"/>
+    </row>
+    <row r="2325" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2325" s="3"/>
+    </row>
+    <row r="2326" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2326" s="3"/>
+    </row>
+    <row r="2327" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2327" s="3"/>
+    </row>
+    <row r="2328" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2328" s="3"/>
+    </row>
+    <row r="2329" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2329" s="3"/>
+    </row>
+    <row r="2330" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2330" s="3"/>
+    </row>
+    <row r="2331" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2331" s="3"/>
+    </row>
+    <row r="2332" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2332" s="3"/>
+    </row>
+    <row r="2333" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2333" s="3"/>
+    </row>
+    <row r="2334" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2334" s="3"/>
+    </row>
+    <row r="2335" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2335" s="3"/>
+    </row>
+    <row r="2336" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2336" s="3"/>
+    </row>
+    <row r="2337" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2337" s="3"/>
+    </row>
+    <row r="2338" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2338" s="3"/>
+    </row>
+    <row r="2339" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2339" s="3"/>
+    </row>
+    <row r="2340" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2340" s="3"/>
+    </row>
+    <row r="2341" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2341" s="3"/>
+    </row>
+    <row r="2342" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2342" s="3"/>
+    </row>
+    <row r="2343" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2343" s="3"/>
+    </row>
+    <row r="2344" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2344" s="3"/>
+    </row>
+    <row r="2345" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2345" s="3"/>
+    </row>
+    <row r="2346" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2346" s="3"/>
+    </row>
+    <row r="2347" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2347" s="3"/>
+    </row>
+    <row r="2348" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2348" s="3"/>
+    </row>
+    <row r="2349" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2349" s="3"/>
+    </row>
+    <row r="2350" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2350" s="3"/>
+    </row>
+    <row r="2351" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2351" s="3"/>
+    </row>
+    <row r="2352" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2352" s="3"/>
+    </row>
+    <row r="2353" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2353" s="3"/>
+    </row>
+    <row r="2354" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2354" s="3"/>
+    </row>
+    <row r="2355" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2355" s="3"/>
+    </row>
+    <row r="2356" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2356" s="3"/>
+    </row>
+    <row r="2357" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2357" s="3"/>
+    </row>
+    <row r="2358" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2358" s="3"/>
+    </row>
+    <row r="2359" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2359" s="3"/>
+    </row>
+    <row r="2360" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2360" s="3"/>
+    </row>
+    <row r="2361" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2361" s="3"/>
+    </row>
+    <row r="2362" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2362" s="3"/>
+    </row>
+    <row r="2363" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2363" s="3"/>
+    </row>
+    <row r="2364" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2364" s="3"/>
+    </row>
+    <row r="2365" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2365" s="3"/>
+    </row>
+    <row r="2366" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2366" s="3"/>
+    </row>
+    <row r="2367" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2367" s="3"/>
+    </row>
+    <row r="2368" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2368" s="3"/>
+    </row>
+    <row r="2369" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2369" s="3"/>
+    </row>
+    <row r="2370" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2370" s="3"/>
+    </row>
+    <row r="2371" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2371" s="3"/>
+    </row>
+    <row r="2372" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2372" s="3"/>
+    </row>
+    <row r="2373" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2373" s="3"/>
+    </row>
+    <row r="2374" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2374" s="3"/>
+    </row>
+    <row r="2375" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2375" s="3"/>
+    </row>
+    <row r="2376" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2376" s="3"/>
+    </row>
+    <row r="2377" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2377" s="3"/>
+    </row>
+    <row r="2378" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2378" s="3"/>
+    </row>
+    <row r="2379" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2379" s="3"/>
+    </row>
+    <row r="2380" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2380" s="3"/>
+    </row>
+    <row r="2381" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2381" s="3"/>
+    </row>
+    <row r="2382" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2382" s="3"/>
+    </row>
+    <row r="2383" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2383" s="3"/>
+    </row>
+    <row r="2384" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2384" s="3"/>
+    </row>
+    <row r="2385" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2385" s="3"/>
+    </row>
+    <row r="2386" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2386" s="3"/>
+    </row>
+    <row r="2387" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2387" s="3"/>
+    </row>
+    <row r="2388" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2388" s="3"/>
+    </row>
+    <row r="2389" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2389" s="3"/>
+    </row>
+    <row r="2390" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2390" s="3"/>
+    </row>
+    <row r="2391" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2391" s="3"/>
+    </row>
+    <row r="2392" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2392" s="3"/>
+    </row>
+    <row r="2393" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2393" s="3"/>
+    </row>
+    <row r="2394" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2394" s="3"/>
+    </row>
+    <row r="2395" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2395" s="3"/>
+    </row>
+    <row r="2396" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2396" s="3"/>
+    </row>
+    <row r="2397" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2397" s="3"/>
+    </row>
+    <row r="2398" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2398" s="3"/>
+    </row>
+    <row r="2399" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2399" s="3"/>
+    </row>
+    <row r="2400" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2400" s="3"/>
+    </row>
+    <row r="2401" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2401" s="3"/>
+    </row>
+    <row r="2402" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2402" s="3"/>
+    </row>
+    <row r="2403" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2403" s="3"/>
+    </row>
+    <row r="2404" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2404" s="3"/>
+    </row>
+    <row r="2405" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2405" s="3"/>
+    </row>
+    <row r="2406" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2406" s="3"/>
+    </row>
+    <row r="2407" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2407" s="3"/>
+    </row>
+    <row r="2408" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2408" s="3"/>
+    </row>
+    <row r="2409" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2409" s="3"/>
+    </row>
+    <row r="2410" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2410" s="3"/>
+    </row>
+    <row r="2411" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2411" s="3"/>
+    </row>
+    <row r="2412" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2412" s="3"/>
+    </row>
+    <row r="2413" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2413" s="3"/>
+    </row>
+    <row r="2414" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2414" s="3"/>
+    </row>
+    <row r="2415" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2415" s="3"/>
+    </row>
+    <row r="2416" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2416" s="3"/>
+    </row>
+    <row r="2417" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2417" s="3"/>
+    </row>
+    <row r="2418" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2418" s="3"/>
+    </row>
+    <row r="2419" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2419" s="3"/>
+    </row>
+    <row r="2420" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2420" s="3"/>
+    </row>
+    <row r="2421" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2421" s="3"/>
+    </row>
+    <row r="2422" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2422" s="3"/>
+    </row>
+    <row r="2423" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2423" s="3"/>
+    </row>
+    <row r="2424" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2424" s="3"/>
+    </row>
+    <row r="2425" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2425" s="3"/>
+    </row>
+    <row r="2426" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2426" s="3"/>
+    </row>
+    <row r="2427" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2427" s="3"/>
+    </row>
+    <row r="2428" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2428" s="3"/>
+    </row>
+    <row r="2429" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2429" s="3"/>
+    </row>
+    <row r="2430" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2430" s="3"/>
+    </row>
+    <row r="2431" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2431" s="3"/>
+    </row>
+    <row r="2432" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2432" s="3"/>
+    </row>
+    <row r="2433" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2433" s="3"/>
+    </row>
+    <row r="2434" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2434" s="3"/>
+    </row>
+    <row r="2435" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2435" s="3"/>
+    </row>
+    <row r="2436" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2436" s="3"/>
+    </row>
+    <row r="2437" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2437" s="3"/>
+    </row>
+    <row r="2438" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2438" s="3"/>
+    </row>
+    <row r="2439" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2439" s="3"/>
+    </row>
+    <row r="2440" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2440" s="3"/>
+    </row>
+    <row r="2441" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2441" s="3"/>
+    </row>
+    <row r="2442" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2442" s="3"/>
+    </row>
+    <row r="2443" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2443" s="3"/>
+    </row>
+    <row r="2444" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2444" s="3"/>
+    </row>
+    <row r="2445" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2445" s="3"/>
+    </row>
+    <row r="2446" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2446" s="3"/>
+    </row>
+    <row r="2447" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2447" s="3"/>
+    </row>
+    <row r="2448" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2448" s="3"/>
+    </row>
+    <row r="2449" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2449" s="3"/>
+    </row>
+    <row r="2450" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2450" s="3"/>
+    </row>
+    <row r="2451" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2451" s="3"/>
+    </row>
+    <row r="2452" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2452" s="3"/>
+    </row>
+    <row r="2453" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2453" s="3"/>
+    </row>
+    <row r="2454" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2454" s="3"/>
+    </row>
+    <row r="2455" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2455" s="3"/>
+    </row>
+    <row r="2456" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2456" s="3"/>
+    </row>
+    <row r="2457" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2457" s="3"/>
+    </row>
+    <row r="2458" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2458" s="3"/>
+    </row>
+    <row r="2459" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2459" s="3"/>
+    </row>
+    <row r="2460" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2460" s="3"/>
+    </row>
+    <row r="2461" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2461" s="3"/>
+    </row>
+    <row r="2462" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2462" s="3"/>
+    </row>
+    <row r="2463" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2463" s="3"/>
+    </row>
+    <row r="2464" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2464" s="3"/>
+    </row>
+    <row r="2465" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2465" s="3"/>
+    </row>
+    <row r="2466" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2466" s="3"/>
+    </row>
+    <row r="2467" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2467" s="3"/>
+    </row>
+    <row r="2468" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2468" s="3"/>
+    </row>
+    <row r="2469" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2469" s="3"/>
+    </row>
+    <row r="2470" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2470" s="3"/>
+    </row>
+    <row r="2471" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2471" s="3"/>
+    </row>
+    <row r="2472" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2472" s="3"/>
+    </row>
+    <row r="2473" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2473" s="3"/>
+    </row>
+    <row r="2474" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2474" s="3"/>
+    </row>
+    <row r="2475" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2475" s="3"/>
+    </row>
+    <row r="2476" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2476" s="3"/>
+    </row>
+    <row r="2477" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2477" s="3"/>
+    </row>
+    <row r="2478" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2478" s="3"/>
+    </row>
+    <row r="2479" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2479" s="3"/>
+    </row>
+    <row r="2480" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2480" s="3"/>
+    </row>
+    <row r="2481" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2481" s="3"/>
+    </row>
+    <row r="2482" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2482" s="3"/>
+    </row>
+    <row r="2483" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2483" s="3"/>
+    </row>
+    <row r="2484" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2484" s="3"/>
+    </row>
+    <row r="2485" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2485" s="3"/>
+    </row>
+    <row r="2486" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2486" s="3"/>
+    </row>
+    <row r="2487" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2487" s="3"/>
+    </row>
+    <row r="2488" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2488" s="3"/>
+    </row>
+    <row r="2489" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2489" s="3"/>
+    </row>
+    <row r="2490" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2490" s="3"/>
+    </row>
+    <row r="2491" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2491" s="3"/>
+    </row>
+    <row r="2492" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2492" s="3"/>
+    </row>
+    <row r="2493" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2493" s="3"/>
+    </row>
+    <row r="2494" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2494" s="3"/>
+    </row>
+    <row r="2495" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2495" s="3"/>
+    </row>
+    <row r="2496" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2496" s="3"/>
+    </row>
+    <row r="2497" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2497" s="3"/>
+    </row>
+    <row r="2498" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2498" s="3"/>
+    </row>
+    <row r="2499" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2499" s="3"/>
+    </row>
+    <row r="2500" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2500" s="3"/>
+    </row>
+    <row r="2501" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2501" s="3"/>
+    </row>
+    <row r="2502" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2502" s="3"/>
+    </row>
+    <row r="2503" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2503" s="3"/>
+    </row>
+    <row r="2504" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2504" s="3"/>
+    </row>
+    <row r="2505" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2505" s="3"/>
+    </row>
+    <row r="2506" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2506" s="3"/>
+    </row>
+    <row r="2507" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2507" s="3"/>
+    </row>
+    <row r="2508" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2508" s="3"/>
+    </row>
+    <row r="2509" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2509" s="3"/>
+    </row>
+    <row r="2510" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2510" s="3"/>
+    </row>
+    <row r="2511" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2511" s="3"/>
+    </row>
+    <row r="2512" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2512" s="3"/>
+    </row>
+    <row r="2513" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2513" s="3"/>
+    </row>
+    <row r="2514" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2514" s="3"/>
+    </row>
+    <row r="2515" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2515" s="3"/>
+    </row>
+    <row r="2516" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2516" s="3"/>
+    </row>
+    <row r="2517" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2517" s="3"/>
+    </row>
+    <row r="2518" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2518" s="3"/>
+    </row>
+    <row r="2519" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2519" s="3"/>
+    </row>
+    <row r="2520" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2520" s="3"/>
+    </row>
+    <row r="2521" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2521" s="3"/>
+    </row>
+    <row r="2522" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2522" s="3"/>
+    </row>
+    <row r="2523" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2523" s="3"/>
+    </row>
+    <row r="2524" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2524" s="3"/>
+    </row>
+    <row r="2525" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2525" s="3"/>
+    </row>
+    <row r="2526" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2526" s="3"/>
+    </row>
+    <row r="2527" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2527" s="3"/>
+    </row>
+    <row r="2528" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2528" s="3"/>
+    </row>
+    <row r="2529" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2529" s="3"/>
+    </row>
+    <row r="2530" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2530" s="3"/>
+    </row>
+    <row r="2531" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2531" s="3"/>
+    </row>
+    <row r="2532" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2532" s="3"/>
+    </row>
+    <row r="2533" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2533" s="3"/>
+    </row>
+    <row r="2534" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2534" s="3"/>
+    </row>
+    <row r="2535" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2535" s="3"/>
+    </row>
+    <row r="2536" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2536" s="3"/>
+    </row>
+    <row r="2537" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2537" s="3"/>
+    </row>
+    <row r="2538" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2538" s="3"/>
+    </row>
+    <row r="2539" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2539" s="3"/>
+    </row>
+    <row r="2540" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2540" s="3"/>
+    </row>
+    <row r="2541" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2541" s="3"/>
+    </row>
+    <row r="2542" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2542" s="3"/>
+    </row>
+    <row r="2543" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2543" s="3"/>
+    </row>
+    <row r="2544" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2544" s="3"/>
+    </row>
+    <row r="2545" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2545" s="3"/>
+    </row>
+    <row r="2546" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2546" s="3"/>
+    </row>
+    <row r="2547" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2547" s="3"/>
+    </row>
+    <row r="2548" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2548" s="3"/>
+    </row>
+    <row r="2549" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2549" s="3"/>
+    </row>
+    <row r="2550" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2550" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A1:A1447">
